--- a/rtss-mexico/src/main/resources/Latin-America-Vital-Rates.xlsx
+++ b/rtss-mexico/src/main/resources/Latin-America-Vital-Rates.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BOOKS\mexico-agriculture\demography\Collver - Birth Rates in Latin America  New Estimates of Historical Trends and Fluctuations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-mexico\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88491749-31C9-467B-BFBB-F63A290433F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{402A7A37-6312-4940-AC12-80A70AB1FAEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="38520" windowHeight="23700" activeTab="9" xr2:uid="{70974F82-9CB0-46B6-83A5-00B0CFE057A6}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="104">
   <si>
     <t>страна</t>
   </si>
@@ -361,7 +361,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -374,6 +374,14 @@
       <color rgb="FF000000"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -402,18 +410,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -793,69 +803,69 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -867,7 +877,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -876,45 +886,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="10">
         <v>1950</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="10">
         <v>1955</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="10">
         <v>1960</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="10">
         <v>1965</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="10">
         <v>1970</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="10">
         <v>1975</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="10">
         <v>1980</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="10">
         <v>1985</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="10">
         <v>1990</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="10">
         <v>1995</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="10">
         <v>2000</v>
       </c>
     </row>
@@ -922,37 +932,37 @@
       <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>5368</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>6623</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>8013</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>9536</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <v>11212</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <v>13023</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="5">
         <v>15045</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="5">
         <v>17234</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="5">
         <v>19588</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="5">
         <v>21959</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="5">
         <v>24298</v>
       </c>
     </row>
@@ -960,37 +970,37 @@
       <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>911</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>1083</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>1303</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>1560</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <v>1814</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <v>2066</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="5">
         <v>2358</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="5">
         <v>2704</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="5">
         <v>3082</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="5">
         <v>3493</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="5">
         <v>3901</v>
       </c>
     </row>
@@ -998,37 +1008,37 @@
       <c r="A6" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>3058</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>3485</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>4003</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>4637</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <v>5326</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="5">
         <v>6056</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="5">
         <v>6813</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="5">
         <v>7739</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="5">
         <v>8898</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="5">
         <v>10178</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="5">
         <v>11564</v>
       </c>
     </row>
@@ -1036,37 +1046,37 @@
       <c r="A7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>11615</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>13283</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>15366</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>17901</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <v>20553</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <v>23088</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="5">
         <v>25802</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="5">
         <v>28966</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="5">
         <v>32103</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="5">
         <v>35474</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7" s="5">
         <v>38778</v>
       </c>
     </row>
@@ -1074,37 +1084,37 @@
       <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>3472</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>3953</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>4527</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>5225</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <v>6064</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="5">
         <v>7018</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="5">
         <v>8056</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="5">
         <v>9193</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="5">
         <v>10358</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="5">
         <v>11481</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="5">
         <v>12580</v>
       </c>
     </row>
@@ -1112,37 +1122,37 @@
       <c r="A9" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>52620</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>61151</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>71291</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <v>82654</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="5">
         <v>94204</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="5">
         <v>106340</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="5">
         <v>119783</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="5">
         <v>134090</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="5">
         <v>147832</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="5">
         <v>160497</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9" s="5">
         <v>172855</v>
       </c>
     </row>
@@ -1150,37 +1160,37 @@
       <c r="A10" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>1488</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>1663</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>1862</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>2099</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <v>2361</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="5">
         <v>2658</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="5">
         <v>3012</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="5">
         <v>3461</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="5">
         <v>3982</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="5">
         <v>4526</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L10" s="5">
         <v>5054</v>
       </c>
     </row>
@@ -1188,37 +1198,37 @@
       <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>7571</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>8699</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>10026</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <v>11593</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <v>13350</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="5">
         <v>15144</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="5">
         <v>17144</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="5">
         <v>19411</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="5">
         <v>21772</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="5">
         <v>24118</v>
       </c>
-      <c r="L11" s="6">
+      <c r="L11" s="5">
         <v>26402</v>
       </c>
     </row>
@@ -1226,37 +1236,37 @@
       <c r="A12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>3067</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>3327</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <v>3665</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <v>4066</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="5">
         <v>4539</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="5">
         <v>5079</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="5">
         <v>5695</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="5">
         <v>6349</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="5">
         <v>7055</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="5">
         <v>7801</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L12" s="5">
         <v>8533</v>
       </c>
     </row>
@@ -1264,37 +1274,37 @@
       <c r="A13" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>2157</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <v>2427</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <v>2753</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <v>3155</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="5">
         <v>3624</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="5">
         <v>4075</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="5">
         <v>4520</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="5">
         <v>4846</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="5">
         <v>5349</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="5">
         <v>5739</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L13" s="5">
         <v>5930</v>
       </c>
     </row>
@@ -1302,37 +1312,37 @@
       <c r="A14" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>6567</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>7255</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="5">
         <v>8068</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <v>8928</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="5">
         <v>9763</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="5">
         <v>10588</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="5">
         <v>11423</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="5">
         <v>12300</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="5">
         <v>13324</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="5">
         <v>14422</v>
       </c>
-      <c r="L14" s="6">
+      <c r="L14" s="5">
         <v>15412</v>
       </c>
     </row>
@@ -1340,37 +1350,37 @@
       <c r="A15" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>16850</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <v>18551</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="5">
         <v>20218</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="5">
         <v>21942</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="5">
         <v>23690</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="5">
         <v>25672</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="5">
         <v>27789</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="5">
         <v>30099</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="5">
         <v>32515</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K15" s="5">
         <v>34845</v>
       </c>
-      <c r="L15" s="6">
+      <c r="L15" s="5">
         <v>37007</v>
       </c>
     </row>
@@ -1378,37 +1388,37 @@
       <c r="A16" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>27232</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <v>31191</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="5">
         <v>36164</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="5">
         <v>42459</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="5">
         <v>50020</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="5">
         <v>58151</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="5">
         <v>66480</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="5">
         <v>74274</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J16" s="5">
         <v>82018</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K16" s="5">
         <v>90062</v>
       </c>
-      <c r="L16" s="6">
+      <c r="L16" s="5">
         <v>97881</v>
       </c>
     </row>
@@ -1416,37 +1426,37 @@
       <c r="A17" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>5866</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <v>6477</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="5">
         <v>7164</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="5">
         <v>7948</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="5">
         <v>8746</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="5">
         <v>9430</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="5">
         <v>9786</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="5">
         <v>10115</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J17" s="5">
         <v>10583</v>
       </c>
-      <c r="K17" s="6">
+      <c r="K17" s="5">
         <v>10907</v>
       </c>
-      <c r="L17" s="6">
+      <c r="L17" s="5">
         <v>11091</v>
       </c>
     </row>
@@ -1454,37 +1464,37 @@
       <c r="A18" t="s">
         <v>83</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>851</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="5">
         <v>966</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="5">
         <v>1109</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="5">
         <v>1289</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="5">
         <v>1492</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="5">
         <v>1710</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="5">
         <v>1934</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="5">
         <v>2176</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J18" s="5">
         <v>2429</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K18" s="5">
         <v>2697</v>
       </c>
-      <c r="L18" s="6">
+      <c r="L18" s="5">
         <v>2981</v>
       </c>
     </row>
@@ -1492,37 +1502,37 @@
       <c r="A19" t="s">
         <v>84</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <v>2346</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="5">
         <v>2732</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="5">
         <v>3216</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="5">
         <v>3754</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="5">
         <v>4337</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="5">
         <v>4980</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="5">
         <v>5659</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I19" s="5">
         <v>6360</v>
       </c>
-      <c r="J19" s="6">
+      <c r="J19" s="5">
         <v>7076</v>
       </c>
-      <c r="K19" s="6">
+      <c r="K19" s="5">
         <v>7815</v>
       </c>
-      <c r="L19" s="6">
+      <c r="L19" s="5">
         <v>8515</v>
       </c>
     </row>
@@ -1530,37 +1540,37 @@
       <c r="A20" t="s">
         <v>85</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="5">
         <v>1538</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="5">
         <v>1764</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="5">
         <v>2033</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="5">
         <v>2343</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="5">
         <v>2710</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="5">
         <v>3143</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="5">
         <v>3670</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20" s="5">
         <v>4261</v>
       </c>
-      <c r="J20" s="6">
+      <c r="J20" s="5">
         <v>4910</v>
       </c>
-      <c r="K20" s="6">
+      <c r="K20" s="5">
         <v>5658</v>
       </c>
-      <c r="L20" s="6">
+      <c r="L20" s="5">
         <v>6488</v>
       </c>
     </row>
@@ -1574,7 +1584,7 @@
   <dimension ref="A1:Z22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1584,98 +1594,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="O3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="P3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="Q3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="R3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="S3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="T3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="U3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="V3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="W3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="X3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="Y3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="Z3" s="2" t="s">
+      <c r="Z3" s="9" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1683,79 +1693,79 @@
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>43.1</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>41.8</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>43.6</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="6">
         <v>44.5</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <v>41.4</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="6">
         <v>41.2</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="6">
         <v>43.1</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="6">
         <v>39.9</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="6">
         <v>40.200000000000003</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="6">
         <v>41.5</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="6">
         <v>43.6</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="3">
         <v>47.31</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="3">
         <v>46.86</v>
       </c>
-      <c r="O4" s="4">
+      <c r="O4" s="3">
         <v>43.45</v>
       </c>
-      <c r="P4" s="4">
+      <c r="P4" s="3">
         <v>39.74</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="Q4" s="3">
         <v>36.270000000000003</v>
       </c>
-      <c r="R4" s="4">
+      <c r="R4" s="3">
         <v>34.44</v>
       </c>
-      <c r="S4" s="4">
+      <c r="S4" s="3">
         <v>32.340000000000003</v>
       </c>
-      <c r="T4" s="4">
+      <c r="T4" s="3">
         <v>30.44</v>
       </c>
-      <c r="U4" s="4">
+      <c r="U4" s="3">
         <v>27.7</v>
       </c>
-      <c r="V4" s="4">
+      <c r="V4" s="3">
         <v>25.07</v>
       </c>
-      <c r="W4" s="4">
+      <c r="W4" s="3">
         <v>23.18</v>
       </c>
-      <c r="X4" s="4">
+      <c r="X4" s="3">
         <v>21.52</v>
       </c>
-      <c r="Y4" s="4">
+      <c r="Y4" s="3">
         <v>19.79</v>
       </c>
-      <c r="Z4" s="4">
+      <c r="Z4" s="3">
         <v>17.690000000000001</v>
       </c>
     </row>
@@ -1763,79 +1773,79 @@
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>46.7</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>46.9</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>48.2</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="6">
         <v>48.9</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <v>44.7</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="6">
         <v>44.9</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="6">
         <v>46.2</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="6">
         <v>44.6</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="6">
         <v>43.3</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="6">
         <v>42.8</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="6">
         <v>42.7</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5" s="3">
         <v>45.46</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="3">
         <v>45.87</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5" s="3">
         <v>43.65</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P5" s="3">
         <v>36.68</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="Q5" s="3">
         <v>30.97</v>
       </c>
-      <c r="R5" s="4">
+      <c r="R5" s="3">
         <v>30.09</v>
       </c>
-      <c r="S5" s="4">
+      <c r="S5" s="3">
         <v>30.46</v>
       </c>
-      <c r="T5" s="4">
+      <c r="T5" s="3">
         <v>29.03</v>
       </c>
-      <c r="U5" s="4">
+      <c r="U5" s="3">
         <v>25.05</v>
       </c>
-      <c r="V5" s="4">
+      <c r="V5" s="3">
         <v>21.68</v>
       </c>
-      <c r="W5" s="4">
+      <c r="W5" s="3">
         <v>18.510000000000002</v>
       </c>
-      <c r="X5" s="4">
+      <c r="X5" s="3">
         <v>16.72</v>
       </c>
-      <c r="Y5" s="4">
+      <c r="Y5" s="3">
         <v>15.25</v>
       </c>
-      <c r="Z5" s="4">
+      <c r="Z5" s="3">
         <v>13.8</v>
       </c>
     </row>
@@ -1843,77 +1853,77 @@
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6">
         <v>45.8</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>43.6</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="6">
         <v>46.6</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="6">
         <v>43.2</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="6">
         <v>48.3</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="6">
         <v>49.2</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="6">
         <v>46.2</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="6">
         <v>44.2</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="6">
         <v>45.2</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="6">
         <v>49.1</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M6" s="3">
         <v>51.08</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="3">
         <v>50.11</v>
       </c>
-      <c r="O6" s="4">
+      <c r="O6" s="3">
         <v>47.47</v>
       </c>
-      <c r="P6" s="4">
+      <c r="P6" s="3">
         <v>45.65</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="Q6" s="3">
         <v>44.47</v>
       </c>
-      <c r="R6" s="4">
+      <c r="R6" s="3">
         <v>43.87</v>
       </c>
-      <c r="S6" s="4">
+      <c r="S6" s="3">
         <v>42.97</v>
       </c>
-      <c r="T6" s="4">
+      <c r="T6" s="3">
         <v>40.74</v>
       </c>
-      <c r="U6" s="4">
+      <c r="U6" s="3">
         <v>38.950000000000003</v>
       </c>
-      <c r="V6" s="4">
+      <c r="V6" s="3">
         <v>36.51</v>
       </c>
-      <c r="W6" s="4">
+      <c r="W6" s="3">
         <v>33.270000000000003</v>
       </c>
-      <c r="X6" s="4">
+      <c r="X6" s="3">
         <v>29.42</v>
       </c>
-      <c r="Y6" s="4">
+      <c r="Y6" s="3">
         <v>27.15</v>
       </c>
-      <c r="Z6" s="4">
+      <c r="Z6" s="3">
         <v>24.95</v>
       </c>
     </row>
@@ -1921,77 +1931,77 @@
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6">
         <v>43</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <v>44</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <v>44.1</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="6">
         <v>44.1</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="6">
         <v>44.6</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="6">
         <v>44.9</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="6">
         <v>43.3</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="6">
         <v>42.6</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="6">
         <v>42.4</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="6">
         <v>43.4</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M7" s="3">
         <v>46.64</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="3">
         <v>46.59</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O7" s="3">
         <v>44.78</v>
       </c>
-      <c r="P7" s="4">
+      <c r="P7" s="3">
         <v>40.090000000000003</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="Q7" s="3">
         <v>34.619999999999997</v>
       </c>
-      <c r="R7" s="4">
+      <c r="R7" s="3">
         <v>32.04</v>
       </c>
-      <c r="S7" s="4">
+      <c r="S7" s="3">
         <v>30.25</v>
       </c>
-      <c r="T7" s="4">
+      <c r="T7" s="3">
         <v>27.58</v>
       </c>
-      <c r="U7" s="4">
+      <c r="U7" s="3">
         <v>26.55</v>
       </c>
-      <c r="V7" s="4">
+      <c r="V7" s="3">
         <v>23.98</v>
       </c>
-      <c r="W7" s="4">
+      <c r="W7" s="3">
         <v>21.31</v>
       </c>
-      <c r="X7" s="4">
+      <c r="X7" s="3">
         <v>18.59</v>
       </c>
-      <c r="Y7" s="4">
+      <c r="Y7" s="3">
         <v>16.03</v>
       </c>
-      <c r="Z7" s="4">
+      <c r="Z7" s="3">
         <v>14.33</v>
       </c>
     </row>
@@ -1999,71 +2009,71 @@
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6">
         <v>46.5</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="6">
         <v>47.7</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="6">
         <v>49.1</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="6">
         <v>48.5</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="6">
         <v>47.7</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="6">
         <v>46</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8" s="6">
         <v>45.9</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M8" s="3">
         <v>44.86</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="3">
         <v>44.2</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O8" s="3">
         <v>43.39</v>
       </c>
-      <c r="P8" s="4">
+      <c r="P8" s="3">
         <v>42.32</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="Q8" s="3">
         <v>40.090000000000003</v>
       </c>
-      <c r="R8" s="4">
+      <c r="R8" s="3">
         <v>36.950000000000003</v>
       </c>
-      <c r="S8" s="4">
+      <c r="S8" s="3">
         <v>34.17</v>
       </c>
-      <c r="T8" s="4">
+      <c r="T8" s="3">
         <v>31.05</v>
       </c>
-      <c r="U8" s="4">
+      <c r="U8" s="3">
         <v>29.16</v>
       </c>
-      <c r="V8" s="4">
+      <c r="V8" s="3">
         <v>27.08</v>
       </c>
-      <c r="W8" s="4">
+      <c r="W8" s="3">
         <v>24.67</v>
       </c>
-      <c r="X8" s="4">
+      <c r="X8" s="3">
         <v>22.76</v>
       </c>
-      <c r="Y8" s="4">
+      <c r="Y8" s="3">
         <v>20.63</v>
       </c>
-      <c r="Z8" s="4">
+      <c r="Z8" s="3">
         <v>17.62</v>
       </c>
     </row>
@@ -2071,79 +2081,79 @@
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <v>46.15</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="6">
         <v>45.9</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <v>45.65</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="6">
         <v>45.4</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="6">
         <v>45.15</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="6">
         <v>44.96</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="6">
         <v>44.86</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="6">
         <v>44.746666666666663</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="6">
         <v>44.613333333333337</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="6">
         <v>44.48</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="6">
         <v>44.160000000000004</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M9" s="3">
         <v>46.2</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="3">
         <v>45.07</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O9" s="3">
         <v>42.57</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P9" s="3">
         <v>37.58</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="Q9" s="3">
         <v>34.51</v>
       </c>
-      <c r="R9" s="4">
+      <c r="R9" s="3">
         <v>33.14</v>
       </c>
-      <c r="S9" s="4">
+      <c r="S9" s="3">
         <v>31.33</v>
       </c>
-      <c r="T9" s="4">
+      <c r="T9" s="3">
         <v>27.4</v>
       </c>
-      <c r="U9" s="4">
+      <c r="U9" s="3">
         <v>23.52</v>
       </c>
-      <c r="V9" s="4">
+      <c r="V9" s="3">
         <v>21.51</v>
       </c>
-      <c r="W9" s="4">
+      <c r="W9" s="3">
         <v>18.57</v>
       </c>
-      <c r="X9" s="4">
+      <c r="X9" s="3">
         <v>16.29</v>
       </c>
-      <c r="Y9" s="4">
+      <c r="Y9" s="3">
         <v>15</v>
       </c>
-      <c r="Z9" s="4">
+      <c r="Z9" s="3">
         <v>14.1</v>
       </c>
     </row>
@@ -2151,57 +2161,57 @@
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="4">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="3">
         <v>44.07</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="3">
         <v>42.93</v>
       </c>
-      <c r="O10" s="4">
+      <c r="O10" s="3">
         <v>42.14</v>
       </c>
-      <c r="P10" s="4">
+      <c r="P10" s="3">
         <v>39.26</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="Q10" s="3">
         <v>35.950000000000003</v>
       </c>
-      <c r="R10" s="4">
+      <c r="R10" s="3">
         <v>35.08</v>
       </c>
-      <c r="S10" s="4">
+      <c r="S10" s="3">
         <v>36.81</v>
       </c>
-      <c r="T10" s="4">
+      <c r="T10" s="3">
         <v>36.07</v>
       </c>
-      <c r="U10" s="4">
+      <c r="U10" s="3">
         <v>33.15</v>
       </c>
-      <c r="V10" s="4">
+      <c r="V10" s="3">
         <v>29.52</v>
       </c>
-      <c r="W10" s="4">
+      <c r="W10" s="3">
         <v>25.29</v>
       </c>
-      <c r="X10" s="4">
+      <c r="X10" s="3">
         <v>23.19</v>
       </c>
-      <c r="Y10" s="4">
+      <c r="Y10" s="3">
         <v>22.54</v>
       </c>
-      <c r="Z10" s="4">
+      <c r="Z10" s="3">
         <v>22.11</v>
       </c>
     </row>
@@ -2209,61 +2219,61 @@
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6">
         <v>44.5</v>
       </c>
-      <c r="L11" s="7">
+      <c r="L11" s="6">
         <v>44.9</v>
       </c>
-      <c r="M11" s="4">
+      <c r="M11" s="3">
         <v>47.96</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11" s="3">
         <v>47.52</v>
       </c>
-      <c r="O11" s="4">
+      <c r="O11" s="3">
         <v>46.17</v>
       </c>
-      <c r="P11" s="4">
+      <c r="P11" s="3">
         <v>43.92</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="Q11" s="3">
         <v>41.24</v>
       </c>
-      <c r="R11" s="4">
+      <c r="R11" s="3">
         <v>38.299999999999997</v>
       </c>
-      <c r="S11" s="4">
+      <c r="S11" s="3">
         <v>35.46</v>
       </c>
-      <c r="T11" s="4">
+      <c r="T11" s="3">
         <v>32.96</v>
       </c>
-      <c r="U11" s="4">
+      <c r="U11" s="3">
         <v>29.58</v>
       </c>
-      <c r="V11" s="4">
+      <c r="V11" s="3">
         <v>25.67</v>
       </c>
-      <c r="W11" s="4">
+      <c r="W11" s="3">
         <v>22.84</v>
       </c>
-      <c r="X11" s="4">
+      <c r="X11" s="3">
         <v>21.34</v>
       </c>
-      <c r="Y11" s="4">
+      <c r="Y11" s="3">
         <v>19.21</v>
       </c>
-      <c r="Z11" s="4">
+      <c r="Z11" s="3">
         <v>17.309999999999999</v>
       </c>
     </row>
@@ -2271,61 +2281,61 @@
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6">
         <v>45.1</v>
       </c>
-      <c r="L12" s="7">
+      <c r="L12" s="6">
         <v>47</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M12" s="3">
         <v>43.1</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="3">
         <v>43.66</v>
       </c>
-      <c r="O12" s="4">
+      <c r="O12" s="3">
         <v>43.83</v>
       </c>
-      <c r="P12" s="4">
+      <c r="P12" s="3">
         <v>43.34</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="Q12" s="3">
         <v>42.04</v>
       </c>
-      <c r="R12" s="4">
+      <c r="R12" s="3">
         <v>40.76</v>
       </c>
-      <c r="S12" s="4">
+      <c r="S12" s="3">
         <v>38.880000000000003</v>
       </c>
-      <c r="T12" s="4">
+      <c r="T12" s="3">
         <v>37.08</v>
       </c>
-      <c r="U12" s="4">
+      <c r="U12" s="3">
         <v>34.81</v>
       </c>
-      <c r="V12" s="4">
+      <c r="V12" s="3">
         <v>31.6</v>
       </c>
-      <c r="W12" s="4">
+      <c r="W12" s="3">
         <v>28.66</v>
       </c>
-      <c r="X12" s="4">
+      <c r="X12" s="3">
         <v>26.8</v>
       </c>
-      <c r="Y12" s="4">
+      <c r="Y12" s="3">
         <v>24.83</v>
       </c>
-      <c r="Z12" s="4">
+      <c r="Z12" s="3">
         <v>22.93</v>
       </c>
     </row>
@@ -2333,77 +2343,77 @@
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6">
         <v>43.8</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="6">
         <v>43.5</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="6">
         <v>44.7</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="6">
         <v>42.9</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="6">
         <v>46.6</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="6">
         <v>47.1</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="6">
         <v>46.5</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="6">
         <v>45.4</v>
       </c>
-      <c r="K13" s="7">
+      <c r="K13" s="6">
         <v>45.2</v>
       </c>
-      <c r="L13" s="7">
+      <c r="L13" s="6">
         <v>44.8</v>
       </c>
-      <c r="M13" s="4">
+      <c r="M13" s="3">
         <v>47.18</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="3">
         <v>47.39</v>
       </c>
-      <c r="O13" s="4">
+      <c r="O13" s="3">
         <v>46.99</v>
       </c>
-      <c r="P13" s="4">
+      <c r="P13" s="3">
         <v>44.96</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="Q13" s="3">
         <v>42.46</v>
       </c>
-      <c r="R13" s="4">
+      <c r="R13" s="3">
         <v>40.79</v>
       </c>
-      <c r="S13" s="4">
+      <c r="S13" s="3">
         <v>38.47</v>
       </c>
-      <c r="T13" s="4">
+      <c r="T13" s="3">
         <v>35.07</v>
       </c>
-      <c r="U13" s="4">
+      <c r="U13" s="3">
         <v>32.270000000000003</v>
       </c>
-      <c r="V13" s="4">
+      <c r="V13" s="3">
         <v>29.67</v>
       </c>
-      <c r="W13" s="4">
+      <c r="W13" s="3">
         <v>24.51</v>
       </c>
-      <c r="X13" s="4">
+      <c r="X13" s="3">
         <v>20.56</v>
       </c>
-      <c r="Y13" s="4">
+      <c r="Y13" s="3">
         <v>19.38</v>
       </c>
-      <c r="Z13" s="4">
+      <c r="Z13" s="3">
         <v>17.34</v>
       </c>
     </row>
@@ -2411,79 +2421,79 @@
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="6">
         <v>45</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="6">
         <v>44.7</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="6">
         <v>44.6</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="6">
         <v>44.4</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="6">
         <v>43.3</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="6">
         <v>42.2</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="6">
         <v>43.8</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="6">
         <v>40.200000000000003</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="6">
         <v>38.4</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K14" s="6">
         <v>38.299999999999997</v>
       </c>
-      <c r="L14" s="7">
+      <c r="L14" s="6">
         <v>37</v>
       </c>
-      <c r="M14" s="4">
+      <c r="M14" s="3">
         <v>37.18</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14" s="3">
         <v>36.4</v>
       </c>
-      <c r="O14" s="4">
+      <c r="O14" s="3">
         <v>34.229999999999997</v>
       </c>
-      <c r="P14" s="4">
+      <c r="P14" s="3">
         <v>30.92</v>
       </c>
-      <c r="Q14" s="4">
+      <c r="Q14" s="3">
         <v>27.43</v>
       </c>
-      <c r="R14" s="4">
+      <c r="R14" s="3">
         <v>24.49</v>
       </c>
-      <c r="S14" s="4">
+      <c r="S14" s="3">
         <v>22.81</v>
       </c>
-      <c r="T14" s="4">
+      <c r="T14" s="3">
         <v>22.46</v>
       </c>
-      <c r="U14" s="4">
+      <c r="U14" s="3">
         <v>21.03</v>
       </c>
-      <c r="V14" s="4">
+      <c r="V14" s="3">
         <v>18.04</v>
       </c>
-      <c r="W14" s="4">
+      <c r="W14" s="3">
         <v>15.34</v>
       </c>
-      <c r="X14" s="4">
+      <c r="X14" s="3">
         <v>14.23</v>
       </c>
-      <c r="Y14" s="4">
+      <c r="Y14" s="3">
         <v>13.82</v>
       </c>
-      <c r="Z14" s="4">
+      <c r="Z14" s="3">
         <v>12.05</v>
       </c>
     </row>
@@ -2491,79 +2501,79 @@
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="6">
         <v>42.4</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="6">
         <v>41</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="6">
         <v>40</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="6">
         <v>40.299999999999997</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="6">
         <v>36.1</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="6">
         <v>34.299999999999997</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="6">
         <v>32.4</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="6">
         <v>28.9</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="6">
         <v>25.7</v>
       </c>
-      <c r="K15" s="7">
+      <c r="K15" s="6">
         <v>25.7</v>
       </c>
-      <c r="L15" s="7">
+      <c r="L15" s="6">
         <v>25.2</v>
       </c>
-      <c r="M15" s="4">
+      <c r="M15" s="3">
         <v>25.74</v>
       </c>
-      <c r="N15" s="4">
+      <c r="N15" s="3">
         <v>24.7</v>
       </c>
-      <c r="O15" s="4">
+      <c r="O15" s="3">
         <v>23.69</v>
       </c>
-      <c r="P15" s="4">
+      <c r="P15" s="3">
         <v>22.62</v>
       </c>
-      <c r="Q15" s="4">
+      <c r="Q15" s="3">
         <v>23.87</v>
       </c>
-      <c r="R15" s="4">
+      <c r="R15" s="3">
         <v>25.23</v>
       </c>
-      <c r="S15" s="4">
+      <c r="S15" s="3">
         <v>23.8</v>
       </c>
-      <c r="T15" s="4">
+      <c r="T15" s="3">
         <v>22.28</v>
       </c>
-      <c r="U15" s="4">
+      <c r="U15" s="3">
         <v>21.75</v>
       </c>
-      <c r="V15" s="4">
+      <c r="V15" s="3">
         <v>20.14</v>
       </c>
-      <c r="W15" s="4">
+      <c r="W15" s="3">
         <v>18.739999999999998</v>
       </c>
-      <c r="X15" s="4">
+      <c r="X15" s="3">
         <v>18.23</v>
       </c>
-      <c r="Y15" s="4">
+      <c r="Y15" s="3">
         <v>17.93</v>
       </c>
-      <c r="Z15" s="4">
+      <c r="Z15" s="3">
         <v>15.97</v>
       </c>
     </row>
@@ -2571,79 +2581,79 @@
       <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="6">
         <v>47.3</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="6">
         <v>46.5</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="6">
         <v>46</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="6">
         <v>43.2</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="6">
         <v>40.6</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="6">
         <v>45.3</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="6">
         <v>44.3</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="6">
         <v>44.1</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="6">
         <v>43.5</v>
       </c>
-      <c r="K16" s="7">
+      <c r="K16" s="6">
         <v>43.8</v>
       </c>
-      <c r="L16" s="7">
+      <c r="L16" s="6">
         <v>44.5</v>
       </c>
-      <c r="M16" s="4">
+      <c r="M16" s="3">
         <v>48.88</v>
       </c>
-      <c r="N16" s="4">
+      <c r="N16" s="3">
         <v>47.47</v>
       </c>
-      <c r="O16" s="4">
+      <c r="O16" s="3">
         <v>46.79</v>
       </c>
-      <c r="P16" s="4">
+      <c r="P16" s="3">
         <v>45.88</v>
       </c>
-      <c r="Q16" s="4">
+      <c r="Q16" s="3">
         <v>42.94</v>
       </c>
-      <c r="R16" s="4">
+      <c r="R16" s="3">
         <v>38.159999999999997</v>
       </c>
-      <c r="S16" s="4">
+      <c r="S16" s="3">
         <v>33.94</v>
       </c>
-      <c r="T16" s="4">
+      <c r="T16" s="3">
         <v>31.35</v>
       </c>
-      <c r="U16" s="4">
+      <c r="U16" s="3">
         <v>28.64</v>
       </c>
-      <c r="V16" s="4">
+      <c r="V16" s="3">
         <v>25.8</v>
       </c>
-      <c r="W16" s="4">
+      <c r="W16" s="3">
         <v>23.31</v>
       </c>
-      <c r="X16" s="4">
+      <c r="X16" s="3">
         <v>21.18</v>
       </c>
-      <c r="Y16" s="4">
+      <c r="Y16" s="3">
         <v>19.760000000000002</v>
       </c>
-      <c r="Z16" s="4">
+      <c r="Z16" s="3">
         <v>17.41</v>
       </c>
     </row>
@@ -2651,77 +2661,77 @@
       <c r="A17" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="7">
+      <c r="B17" s="7"/>
+      <c r="C17" s="6">
         <v>44.6</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="6">
         <v>47.4</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="6">
         <v>44.7</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="6">
         <v>40.700000000000003</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="6">
         <v>36.700000000000003</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="7">
         <v>32.9</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="6">
         <v>31.3</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="6">
         <v>30.9</v>
       </c>
-      <c r="K17" s="7">
+      <c r="K17" s="6">
         <v>31.9</v>
       </c>
-      <c r="L17" s="7">
+      <c r="L17" s="6">
         <v>30</v>
       </c>
-      <c r="M17" s="4">
+      <c r="M17" s="3">
         <v>31.42</v>
       </c>
-      <c r="N17" s="4">
+      <c r="N17" s="3">
         <v>31.26</v>
       </c>
-      <c r="O17" s="4">
+      <c r="O17" s="3">
         <v>34.26</v>
       </c>
-      <c r="P17" s="4">
+      <c r="P17" s="3">
         <v>32.58</v>
       </c>
-      <c r="Q17" s="4">
+      <c r="Q17" s="3">
         <v>27.1</v>
       </c>
-      <c r="R17" s="4">
+      <c r="R17" s="3">
         <v>17.600000000000001</v>
       </c>
-      <c r="S17" s="4">
+      <c r="S17" s="3">
         <v>15.35</v>
       </c>
-      <c r="T17" s="4">
+      <c r="T17" s="3">
         <v>17.38</v>
       </c>
-      <c r="U17" s="4">
+      <c r="U17" s="3">
         <v>15.28</v>
       </c>
-      <c r="V17" s="4">
+      <c r="V17" s="3">
         <v>13.48</v>
       </c>
-      <c r="W17" s="4">
+      <c r="W17" s="3">
         <v>12.24</v>
       </c>
-      <c r="X17" s="4">
+      <c r="X17" s="3">
         <v>10.59</v>
       </c>
-      <c r="Y17" s="4">
+      <c r="Y17" s="3">
         <v>11.29</v>
       </c>
-      <c r="Z17" s="4">
+      <c r="Z17" s="3">
         <v>10.24</v>
       </c>
     </row>
@@ -2729,77 +2739,77 @@
       <c r="A18" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="7">
+      <c r="B18" s="7"/>
+      <c r="C18" s="6">
         <v>40.299999999999997</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="6">
         <v>40.200000000000003</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="6">
         <v>42</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="6">
         <v>37.299999999999997</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="6">
         <v>40</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="6">
         <v>39</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="6">
         <v>37.4</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J18" s="6">
         <v>37.799999999999997</v>
       </c>
-      <c r="K18" s="7">
+      <c r="K18" s="6">
         <v>39.5</v>
       </c>
-      <c r="L18" s="7">
+      <c r="L18" s="6">
         <v>38.299999999999997</v>
       </c>
-      <c r="M18" s="4">
+      <c r="M18" s="3">
         <v>40.69</v>
       </c>
-      <c r="N18" s="4">
+      <c r="N18" s="3">
         <v>40.75</v>
       </c>
-      <c r="O18" s="4">
+      <c r="O18" s="3">
         <v>41.13</v>
       </c>
-      <c r="P18" s="4">
+      <c r="P18" s="3">
         <v>39.18</v>
       </c>
-      <c r="Q18" s="4">
+      <c r="Q18" s="3">
         <v>35.86</v>
       </c>
-      <c r="R18" s="4">
+      <c r="R18" s="3">
         <v>31.86</v>
       </c>
-      <c r="S18" s="4">
+      <c r="S18" s="3">
         <v>30</v>
       </c>
-      <c r="T18" s="4">
+      <c r="T18" s="3">
         <v>28.04</v>
       </c>
-      <c r="U18" s="4">
+      <c r="U18" s="3">
         <v>25.92</v>
       </c>
-      <c r="V18" s="4">
+      <c r="V18" s="3">
         <v>24.37</v>
       </c>
-      <c r="W18" s="4">
+      <c r="W18" s="3">
         <v>22.97</v>
       </c>
-      <c r="X18" s="4">
+      <c r="X18" s="3">
         <v>21.62</v>
       </c>
-      <c r="Y18" s="4">
+      <c r="Y18" s="3">
         <v>20.65</v>
       </c>
-      <c r="Z18" s="4">
+      <c r="Z18" s="3">
         <v>18.899999999999999</v>
       </c>
     </row>
@@ -2807,57 +2817,57 @@
       <c r="A19" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="4">
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="3">
         <v>53.78</v>
       </c>
-      <c r="N19" s="4">
+      <c r="N19" s="3">
         <v>53.71</v>
       </c>
-      <c r="O19" s="4">
+      <c r="O19" s="3">
         <v>50.13</v>
       </c>
-      <c r="P19" s="4">
+      <c r="P19" s="3">
         <v>44.91</v>
       </c>
-      <c r="Q19" s="4">
+      <c r="Q19" s="3">
         <v>40.57</v>
       </c>
-      <c r="R19" s="4">
+      <c r="R19" s="3">
         <v>37.01</v>
       </c>
-      <c r="S19" s="4">
+      <c r="S19" s="3">
         <v>34</v>
       </c>
-      <c r="T19" s="4">
+      <c r="T19" s="3">
         <v>31.57</v>
       </c>
-      <c r="U19" s="4">
+      <c r="U19" s="3">
         <v>29.67</v>
       </c>
-      <c r="V19" s="4">
+      <c r="V19" s="3">
         <v>26.41</v>
       </c>
-      <c r="W19" s="4">
+      <c r="W19" s="3">
         <v>24.37</v>
       </c>
-      <c r="X19" s="4">
+      <c r="X19" s="3">
         <v>22.12</v>
       </c>
-      <c r="Y19" s="4">
+      <c r="Y19" s="3">
         <v>21.52</v>
       </c>
-      <c r="Z19" s="4">
+      <c r="Z19" s="3">
         <v>20.010000000000002</v>
       </c>
     </row>
@@ -2865,73 +2875,73 @@
       <c r="A20" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="7">
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="6">
         <v>43.7</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="6">
         <v>41.7</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="6">
         <v>44.3</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="6">
         <v>44.1</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="6">
         <v>42</v>
       </c>
-      <c r="J20" s="7">
+      <c r="J20" s="6">
         <v>41.9</v>
       </c>
-      <c r="K20" s="7">
+      <c r="K20" s="6">
         <v>43.8</v>
       </c>
-      <c r="L20" s="7">
+      <c r="L20" s="6">
         <v>44.5</v>
       </c>
-      <c r="M20" s="4">
+      <c r="M20" s="3">
         <v>52.23</v>
       </c>
-      <c r="N20" s="4">
+      <c r="N20" s="3">
         <v>50.79</v>
       </c>
-      <c r="O20" s="4">
+      <c r="O20" s="3">
         <v>48.62</v>
       </c>
-      <c r="P20" s="4">
+      <c r="P20" s="3">
         <v>46.99</v>
       </c>
-      <c r="Q20" s="4">
+      <c r="Q20" s="3">
         <v>46.06</v>
       </c>
-      <c r="R20" s="4">
+      <c r="R20" s="3">
         <v>45.59</v>
       </c>
-      <c r="S20" s="4">
+      <c r="S20" s="3">
         <v>43.06</v>
       </c>
-      <c r="T20" s="4">
+      <c r="T20" s="3">
         <v>39.9</v>
       </c>
-      <c r="U20" s="4">
+      <c r="U20" s="3">
         <v>37.9</v>
       </c>
-      <c r="V20" s="4">
+      <c r="V20" s="3">
         <v>35.69</v>
       </c>
-      <c r="W20" s="4">
+      <c r="W20" s="3">
         <v>32.35</v>
       </c>
-      <c r="X20" s="4">
+      <c r="X20" s="3">
         <v>28.19</v>
       </c>
-      <c r="Y20" s="4">
+      <c r="Y20" s="3">
         <v>25.32</v>
       </c>
-      <c r="Z20" s="4">
+      <c r="Z20" s="3">
         <v>23.58</v>
       </c>
     </row>
@@ -2954,7 +2964,7 @@
   <dimension ref="A1:Z22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+      <selection activeCell="A3" sqref="A3:Z3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2964,98 +2974,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="O3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="P3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="Q3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="R3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="S3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="T3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="U3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="V3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="W3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="X3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="Y3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="Z3" s="2" t="s">
+      <c r="Z3" s="9" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3063,79 +3073,79 @@
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>29.4</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>29.1</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>29.8</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="6">
         <v>28.3</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <v>29.7</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="6">
         <v>26</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="6">
         <v>24.6</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="6">
         <v>21.9</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="6">
         <v>21.1</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="6">
         <v>19.8</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="6">
         <v>16.100000000000001</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="3">
         <v>13.46</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="3">
         <v>11.36</v>
       </c>
-      <c r="O4" s="4">
+      <c r="O4" s="3">
         <v>9.23</v>
       </c>
-      <c r="P4" s="4">
+      <c r="P4" s="3">
         <v>7.45</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="Q4" s="3">
         <v>6.34</v>
       </c>
-      <c r="R4" s="4">
+      <c r="R4" s="3">
         <v>5.59</v>
       </c>
-      <c r="S4" s="4">
+      <c r="S4" s="3">
         <v>5.2</v>
       </c>
-      <c r="T4" s="4">
+      <c r="T4" s="3">
         <v>4.84</v>
       </c>
-      <c r="U4" s="4">
+      <c r="U4" s="3">
         <v>4.83</v>
       </c>
-      <c r="V4" s="4">
+      <c r="V4" s="3">
         <v>4.8</v>
       </c>
-      <c r="W4" s="4">
+      <c r="W4" s="3">
         <v>5.16</v>
       </c>
-      <c r="X4" s="4">
+      <c r="X4" s="3">
         <v>5.3</v>
       </c>
-      <c r="Y4" s="4">
+      <c r="Y4" s="3">
         <v>5.72</v>
       </c>
-      <c r="Z4" s="4">
+      <c r="Z4" s="3">
         <v>6.58</v>
       </c>
     </row>
@@ -3143,79 +3153,79 @@
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>29.3</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>28.8</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>28.6</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="6">
         <v>27.2</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <v>29</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="6">
         <v>25.2</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="6">
         <v>23.6</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="6">
         <v>21.5</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="6">
         <v>19.2</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="6">
         <v>17.399999999999999</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="6">
         <v>13.2</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5" s="3">
         <v>11.47</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="3">
         <v>9.66</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5" s="3">
         <v>8.23</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P5" s="3">
         <v>7.07</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="Q5" s="3">
         <v>5.73</v>
       </c>
-      <c r="R5" s="4">
+      <c r="R5" s="3">
         <v>4.6100000000000003</v>
       </c>
-      <c r="S5" s="4">
+      <c r="S5" s="3">
         <v>4.03</v>
       </c>
-      <c r="T5" s="4">
+      <c r="T5" s="3">
         <v>3.8</v>
       </c>
-      <c r="U5" s="4">
+      <c r="U5" s="3">
         <v>3.73</v>
       </c>
-      <c r="V5" s="4">
+      <c r="V5" s="3">
         <v>3.91</v>
       </c>
-      <c r="W5" s="4">
+      <c r="W5" s="3">
         <v>3.88</v>
       </c>
-      <c r="X5" s="4">
+      <c r="X5" s="3">
         <v>3.99</v>
       </c>
-      <c r="Y5" s="4">
+      <c r="Y5" s="3">
         <v>4.33</v>
       </c>
-      <c r="Z5" s="4">
+      <c r="Z5" s="3">
         <v>4.9000000000000004</v>
       </c>
     </row>
@@ -3223,77 +3233,77 @@
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6">
         <v>35.4</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>34</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="6">
         <v>33</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="6">
         <v>40.799999999999997</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="6">
         <v>33.700000000000003</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="6">
         <v>32.6</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="6">
         <v>31.7</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="6">
         <v>30.7</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="6">
         <v>28.5</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="6">
         <v>26.5</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M6" s="3">
         <v>24.83</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="3">
         <v>21.72</v>
       </c>
-      <c r="O6" s="4">
+      <c r="O6" s="3">
         <v>18.13</v>
       </c>
-      <c r="P6" s="4">
+      <c r="P6" s="3">
         <v>16.850000000000001</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="Q6" s="3">
         <v>14.28</v>
       </c>
-      <c r="R6" s="4">
+      <c r="R6" s="3">
         <v>13</v>
       </c>
-      <c r="S6" s="4">
+      <c r="S6" s="3">
         <v>12.11</v>
       </c>
-      <c r="T6" s="4">
+      <c r="T6" s="3">
         <v>9.23</v>
       </c>
-      <c r="U6" s="4">
+      <c r="U6" s="3">
         <v>8.49</v>
       </c>
-      <c r="V6" s="4">
+      <c r="V6" s="3">
         <v>7.06</v>
       </c>
-      <c r="W6" s="4">
+      <c r="W6" s="3">
         <v>6</v>
       </c>
-      <c r="X6" s="4">
+      <c r="X6" s="3">
         <v>5.6</v>
       </c>
-      <c r="Y6" s="4">
+      <c r="Y6" s="3">
         <v>5.26</v>
       </c>
-      <c r="Z6" s="4">
+      <c r="Z6" s="3">
         <v>5.15</v>
       </c>
     </row>
@@ -3301,77 +3311,77 @@
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6">
         <v>26.6</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <v>26.8</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <v>26</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="6">
         <v>25.1</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="6">
         <v>23.7</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="6">
         <v>22.4</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="6">
         <v>22.5</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="6">
         <v>21.6</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="6">
         <v>20.3</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="6">
         <v>20.8</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M7" s="3">
         <v>16.510000000000002</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="3">
         <v>13.76</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O7" s="3">
         <v>11.19</v>
       </c>
-      <c r="P7" s="4">
+      <c r="P7" s="3">
         <v>9.41</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="Q7" s="3">
         <v>7.84</v>
       </c>
-      <c r="R7" s="4">
+      <c r="R7" s="3">
         <v>6.66</v>
       </c>
-      <c r="S7" s="4">
+      <c r="S7" s="3">
         <v>5.9</v>
       </c>
-      <c r="T7" s="4">
+      <c r="T7" s="3">
         <v>6.06</v>
       </c>
-      <c r="U7" s="4">
+      <c r="U7" s="3">
         <v>5.88</v>
       </c>
-      <c r="V7" s="4">
+      <c r="V7" s="3">
         <v>5.54</v>
       </c>
-      <c r="W7" s="4">
+      <c r="W7" s="3">
         <v>5.39</v>
       </c>
-      <c r="X7" s="4">
+      <c r="X7" s="3">
         <v>5.05</v>
       </c>
-      <c r="Y7" s="4">
+      <c r="Y7" s="3">
         <v>5.04</v>
       </c>
-      <c r="Z7" s="4">
+      <c r="Z7" s="3">
         <v>5.32</v>
       </c>
     </row>
@@ -3379,71 +3389,71 @@
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6">
         <v>30.2</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="6">
         <v>28.9</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="6">
         <v>28.2</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="6">
         <v>25.7</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="6">
         <v>25.6</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="6">
         <v>24</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8" s="6">
         <v>20</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M8" s="3">
         <v>18.86</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="3">
         <v>16.75</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O8" s="3">
         <v>14.39</v>
       </c>
-      <c r="P8" s="4">
+      <c r="P8" s="3">
         <v>12.43</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="Q8" s="3">
         <v>10.72</v>
       </c>
-      <c r="R8" s="4">
+      <c r="R8" s="3">
         <v>9.17</v>
       </c>
-      <c r="S8" s="4">
+      <c r="S8" s="3">
         <v>7.7</v>
       </c>
-      <c r="T8" s="4">
+      <c r="T8" s="3">
         <v>6.48</v>
       </c>
-      <c r="U8" s="4">
+      <c r="U8" s="3">
         <v>5.49</v>
       </c>
-      <c r="V8" s="4">
+      <c r="V8" s="3">
         <v>5.0599999999999996</v>
       </c>
-      <c r="W8" s="4">
+      <c r="W8" s="3">
         <v>4.95</v>
       </c>
-      <c r="X8" s="4">
+      <c r="X8" s="3">
         <v>4.87</v>
       </c>
-      <c r="Y8" s="4">
+      <c r="Y8" s="3">
         <v>4.8600000000000003</v>
       </c>
-      <c r="Z8" s="4">
+      <c r="Z8" s="3">
         <v>4.87</v>
       </c>
     </row>
@@ -3451,79 +3461,79 @@
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <v>28.520000000000003</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="6">
         <v>27.640000000000004</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <v>27.240000000000002</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="6">
         <v>26.879999999999995</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="6">
         <v>26.580000000000002</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="6">
         <v>26.32</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="6">
         <v>26.119999999999997</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="6">
         <v>25.32</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="6">
         <v>23.62</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="6">
         <v>21.919999999999998</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="6">
         <v>19.559999999999999</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M9" s="3">
         <v>16.309999999999999</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="3">
         <v>14.6</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O9" s="3">
         <v>12.95</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P9" s="3">
         <v>11.32</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="Q9" s="3">
         <v>10.050000000000001</v>
       </c>
-      <c r="R9" s="4">
+      <c r="R9" s="3">
         <v>9.1199999999999992</v>
       </c>
-      <c r="S9" s="4">
+      <c r="S9" s="3">
         <v>8.23</v>
       </c>
-      <c r="T9" s="4">
+      <c r="T9" s="3">
         <v>7.37</v>
       </c>
-      <c r="U9" s="4">
+      <c r="U9" s="3">
         <v>6.8</v>
       </c>
-      <c r="V9" s="4">
+      <c r="V9" s="3">
         <v>6.41</v>
       </c>
-      <c r="W9" s="4">
+      <c r="W9" s="3">
         <v>6.11</v>
       </c>
-      <c r="X9" s="4">
+      <c r="X9" s="3">
         <v>5.82</v>
       </c>
-      <c r="Y9" s="4">
+      <c r="Y9" s="3">
         <v>5.89</v>
       </c>
-      <c r="Z9" s="4">
+      <c r="Z9" s="3">
         <v>6.26</v>
       </c>
     </row>
@@ -3531,57 +3541,57 @@
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="4">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="3">
         <v>11.57</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="3">
         <v>11.06</v>
       </c>
-      <c r="O10" s="4">
+      <c r="O10" s="3">
         <v>10.24</v>
       </c>
-      <c r="P10" s="4">
+      <c r="P10" s="3">
         <v>9.73</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="Q10" s="3">
         <v>9.1300000000000008</v>
       </c>
-      <c r="R10" s="4">
+      <c r="R10" s="3">
         <v>8.69</v>
       </c>
-      <c r="S10" s="4">
+      <c r="S10" s="3">
         <v>8.14</v>
       </c>
-      <c r="T10" s="4">
+      <c r="T10" s="3">
         <v>7.07</v>
       </c>
-      <c r="U10" s="4">
+      <c r="U10" s="3">
         <v>6.15</v>
       </c>
-      <c r="V10" s="4">
+      <c r="V10" s="3">
         <v>5.56</v>
       </c>
-      <c r="W10" s="4">
+      <c r="W10" s="3">
         <v>5.23</v>
       </c>
-      <c r="X10" s="4">
+      <c r="X10" s="3">
         <v>5.19</v>
       </c>
-      <c r="Y10" s="4">
+      <c r="Y10" s="3">
         <v>5.21</v>
       </c>
-      <c r="Z10" s="4">
+      <c r="Z10" s="3">
         <v>5.46</v>
       </c>
     </row>
@@ -3589,61 +3599,61 @@
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6">
         <v>28.8</v>
       </c>
-      <c r="L11" s="7">
+      <c r="L11" s="6">
         <v>24.7</v>
       </c>
-      <c r="M11" s="4">
+      <c r="M11" s="3">
         <v>19.86</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11" s="3">
         <v>18.350000000000001</v>
       </c>
-      <c r="O11" s="4">
+      <c r="O11" s="3">
         <v>16.3</v>
       </c>
-      <c r="P11" s="4">
+      <c r="P11" s="3">
         <v>14.63</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="Q11" s="3">
         <v>14.33</v>
       </c>
-      <c r="R11" s="4">
+      <c r="R11" s="3">
         <v>11.85</v>
       </c>
-      <c r="S11" s="4">
+      <c r="S11" s="3">
         <v>10.17</v>
       </c>
-      <c r="T11" s="4">
+      <c r="T11" s="3">
         <v>8.58</v>
       </c>
-      <c r="U11" s="4">
+      <c r="U11" s="3">
         <v>7.16</v>
       </c>
-      <c r="V11" s="4">
+      <c r="V11" s="3">
         <v>6.01</v>
       </c>
-      <c r="W11" s="4">
+      <c r="W11" s="3">
         <v>5.68</v>
       </c>
-      <c r="X11" s="4">
+      <c r="X11" s="3">
         <v>6.29</v>
       </c>
-      <c r="Y11" s="4">
+      <c r="Y11" s="3">
         <v>6.46</v>
       </c>
-      <c r="Z11" s="4">
+      <c r="Z11" s="3">
         <v>6.1</v>
       </c>
     </row>
@@ -3651,57 +3661,57 @@
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="4">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="3">
         <v>25.14</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="3">
         <v>23.6</v>
       </c>
-      <c r="O12" s="4">
+      <c r="O12" s="3">
         <v>22.06</v>
       </c>
-      <c r="P12" s="4">
+      <c r="P12" s="3">
         <v>20.27</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="Q12" s="3">
         <v>18.43</v>
       </c>
-      <c r="R12" s="4">
+      <c r="R12" s="3">
         <v>16.43</v>
       </c>
-      <c r="S12" s="4">
+      <c r="S12" s="3">
         <v>14.75</v>
       </c>
-      <c r="T12" s="4">
+      <c r="T12" s="3">
         <v>13.14</v>
       </c>
-      <c r="U12" s="4">
+      <c r="U12" s="3">
         <v>11.35</v>
       </c>
-      <c r="V12" s="4">
+      <c r="V12" s="3">
         <v>10.19</v>
       </c>
-      <c r="W12" s="4">
+      <c r="W12" s="3">
         <v>9.36</v>
       </c>
-      <c r="X12" s="4">
+      <c r="X12" s="3">
         <v>8.48</v>
       </c>
-      <c r="Y12" s="4">
+      <c r="Y12" s="3">
         <v>7.86</v>
       </c>
-      <c r="Z12" s="4">
+      <c r="Z12" s="3">
         <v>7.6</v>
       </c>
     </row>
@@ -3709,77 +3719,77 @@
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6">
         <v>29.7</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="6">
         <v>31.4</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="6">
         <v>31.1</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="6">
         <v>41.2</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="6">
         <v>32.799999999999997</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="6">
         <v>34.1</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="6">
         <v>32.700000000000003</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="6">
         <v>29.6</v>
       </c>
-      <c r="K13" s="7">
+      <c r="K13" s="6">
         <v>28.5</v>
       </c>
-      <c r="L13" s="7">
+      <c r="L13" s="6">
         <v>22.8</v>
       </c>
-      <c r="M13" s="4">
+      <c r="M13" s="3">
         <v>20.77</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="3">
         <v>18.88</v>
       </c>
-      <c r="O13" s="4">
+      <c r="O13" s="3">
         <v>17.27</v>
       </c>
-      <c r="P13" s="4">
+      <c r="P13" s="3">
         <v>16.02</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="Q13" s="3">
         <v>14.5</v>
       </c>
-      <c r="R13" s="4">
+      <c r="R13" s="3">
         <v>12.56</v>
       </c>
-      <c r="S13" s="4">
+      <c r="S13" s="3">
         <v>12.8</v>
       </c>
-      <c r="T13" s="4">
+      <c r="T13" s="3">
         <v>8.91</v>
       </c>
-      <c r="U13" s="4">
+      <c r="U13" s="3">
         <v>7.25</v>
       </c>
-      <c r="V13" s="4">
+      <c r="V13" s="3">
         <v>6.64</v>
       </c>
-      <c r="W13" s="4">
+      <c r="W13" s="3">
         <v>6.73</v>
       </c>
-      <c r="X13" s="4">
+      <c r="X13" s="3">
         <v>7.51</v>
       </c>
-      <c r="Y13" s="4">
+      <c r="Y13" s="3">
         <v>7.15</v>
       </c>
-      <c r="Z13" s="4">
+      <c r="Z13" s="3">
         <v>7.44</v>
       </c>
     </row>
@@ -3787,79 +3797,79 @@
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="6">
         <v>30.3</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="6">
         <v>31.6</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="6">
         <v>33.200000000000003</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="6">
         <v>31.5</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="6">
         <v>31</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="6">
         <v>31.3</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="6">
         <v>26.4</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="6">
         <v>24.5</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="6">
         <v>23.8</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K14" s="6">
         <v>20.100000000000001</v>
       </c>
-      <c r="L14" s="7">
+      <c r="L14" s="6">
         <v>17.5</v>
       </c>
-      <c r="M14" s="4">
+      <c r="M14" s="3">
         <v>13.61</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14" s="3">
         <v>11.82</v>
       </c>
-      <c r="O14" s="4">
+      <c r="O14" s="3">
         <v>10.6</v>
       </c>
-      <c r="P14" s="4">
+      <c r="P14" s="3">
         <v>9.11</v>
       </c>
-      <c r="Q14" s="4">
+      <c r="Q14" s="3">
         <v>7.94</v>
       </c>
-      <c r="R14" s="4">
+      <c r="R14" s="3">
         <v>6.58</v>
       </c>
-      <c r="S14" s="4">
+      <c r="S14" s="3">
         <v>5.87</v>
       </c>
-      <c r="T14" s="4">
+      <c r="T14" s="3">
         <v>5.48</v>
       </c>
-      <c r="U14" s="4">
+      <c r="U14" s="3">
         <v>5.19</v>
       </c>
-      <c r="V14" s="4">
+      <c r="V14" s="3">
         <v>5.13</v>
       </c>
-      <c r="W14" s="4">
+      <c r="W14" s="3">
         <v>5.0599999999999996</v>
       </c>
-      <c r="X14" s="4">
+      <c r="X14" s="3">
         <v>5.48</v>
       </c>
-      <c r="Y14" s="4">
+      <c r="Y14" s="3">
         <v>5.98</v>
       </c>
-      <c r="Z14" s="4">
+      <c r="Z14" s="3">
         <v>6.18</v>
       </c>
     </row>
@@ -3867,79 +3877,79 @@
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="6">
         <v>23.8</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="6">
         <v>21.6</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="6">
         <v>20.100000000000001</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="6">
         <v>17.7</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="6">
         <v>16.5</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="6">
         <v>14</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="6">
         <v>13.1</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="6">
         <v>11.6</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="6">
         <v>11.6</v>
       </c>
-      <c r="K15" s="7">
+      <c r="K15" s="6">
         <v>10.4</v>
       </c>
-      <c r="L15" s="7">
+      <c r="L15" s="6">
         <v>9.6</v>
       </c>
-      <c r="M15" s="4">
+      <c r="M15" s="3">
         <v>9.24</v>
       </c>
-      <c r="N15" s="4">
+      <c r="N15" s="3">
         <v>8.77</v>
       </c>
-      <c r="O15" s="4">
+      <c r="O15" s="3">
         <v>8.6999999999999993</v>
       </c>
-      <c r="P15" s="4">
+      <c r="P15" s="3">
         <v>9.0299999999999994</v>
       </c>
-      <c r="Q15" s="4">
+      <c r="Q15" s="3">
         <v>9.27</v>
       </c>
-      <c r="R15" s="4">
+      <c r="R15" s="3">
         <v>8.9700000000000006</v>
       </c>
-      <c r="S15" s="4">
+      <c r="S15" s="3">
         <v>8.8000000000000007</v>
       </c>
-      <c r="T15" s="4">
+      <c r="T15" s="3">
         <v>8.06</v>
       </c>
-      <c r="U15" s="4">
+      <c r="U15" s="3">
         <v>7.66</v>
       </c>
-      <c r="V15" s="4">
+      <c r="V15" s="3">
         <v>7.54</v>
       </c>
-      <c r="W15" s="4">
+      <c r="W15" s="3">
         <v>7.57</v>
       </c>
-      <c r="X15" s="4">
+      <c r="X15" s="3">
         <v>7.55</v>
       </c>
-      <c r="Y15" s="4">
+      <c r="Y15" s="3">
         <v>7.62</v>
       </c>
-      <c r="Z15" s="4">
+      <c r="Z15" s="3">
         <v>7.65</v>
       </c>
     </row>
@@ -3947,79 +3957,79 @@
       <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="6">
         <v>34.4</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="6">
         <v>33.4</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="6">
         <v>32.9</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="6">
         <v>46.6</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="6">
         <v>48.3</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="6">
         <v>28.4</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="6">
         <v>26.7</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="6">
         <v>26.7</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="6">
         <v>23.5</v>
       </c>
-      <c r="K16" s="7">
+      <c r="K16" s="6">
         <v>21.8</v>
       </c>
-      <c r="L16" s="7">
+      <c r="L16" s="6">
         <v>17.8</v>
       </c>
-      <c r="M16" s="4">
+      <c r="M16" s="3">
         <v>19.87</v>
       </c>
-      <c r="N16" s="4">
+      <c r="N16" s="3">
         <v>15.76</v>
       </c>
-      <c r="O16" s="4">
+      <c r="O16" s="3">
         <v>12.95</v>
       </c>
-      <c r="P16" s="4">
+      <c r="P16" s="3">
         <v>10.89</v>
       </c>
-      <c r="Q16" s="4">
+      <c r="Q16" s="3">
         <v>9.31</v>
       </c>
-      <c r="R16" s="4">
+      <c r="R16" s="3">
         <v>7.62</v>
       </c>
-      <c r="S16" s="4">
+      <c r="S16" s="3">
         <v>6.61</v>
       </c>
-      <c r="T16" s="4">
+      <c r="T16" s="3">
         <v>6.19</v>
       </c>
-      <c r="U16" s="4">
+      <c r="U16" s="3">
         <v>5.97</v>
       </c>
-      <c r="V16" s="4">
+      <c r="V16" s="3">
         <v>5.58</v>
       </c>
-      <c r="W16" s="4">
+      <c r="W16" s="3">
         <v>5.47</v>
       </c>
-      <c r="X16" s="4">
+      <c r="X16" s="3">
         <v>5.63</v>
       </c>
-      <c r="Y16" s="4">
+      <c r="Y16" s="3">
         <v>5.7</v>
       </c>
-      <c r="Z16" s="4">
+      <c r="Z16" s="3">
         <v>5.96</v>
       </c>
     </row>
@@ -4027,77 +4037,77 @@
       <c r="A17" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="7">
+      <c r="B17" s="7"/>
+      <c r="C17" s="6">
         <v>23.7</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="6">
         <v>23.3</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="6">
         <v>21.4</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="6">
         <v>22.2</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="6">
         <v>19.3</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="6">
         <v>15.2</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="6">
         <v>13.3</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="6">
         <v>12.7</v>
       </c>
-      <c r="K17" s="7">
+      <c r="K17" s="6">
         <v>10.9</v>
       </c>
-      <c r="L17" s="7">
+      <c r="L17" s="6">
         <v>8.6999999999999993</v>
       </c>
-      <c r="M17" s="4">
+      <c r="M17" s="3">
         <v>10.59</v>
       </c>
-      <c r="N17" s="4">
+      <c r="N17" s="3">
         <v>9.43</v>
       </c>
-      <c r="O17" s="4">
+      <c r="O17" s="3">
         <v>8.6300000000000008</v>
       </c>
-      <c r="P17" s="4">
+      <c r="P17" s="3">
         <v>7.67</v>
       </c>
-      <c r="Q17" s="4">
+      <c r="Q17" s="3">
         <v>6.72</v>
       </c>
-      <c r="R17" s="4">
+      <c r="R17" s="3">
         <v>6.26</v>
       </c>
-      <c r="S17" s="4">
+      <c r="S17" s="3">
         <v>6.34</v>
       </c>
-      <c r="T17" s="4">
+      <c r="T17" s="3">
         <v>6.74</v>
       </c>
-      <c r="U17" s="4">
+      <c r="U17" s="3">
         <v>7.23</v>
       </c>
-      <c r="V17" s="4">
+      <c r="V17" s="3">
         <v>7.28</v>
       </c>
-      <c r="W17" s="4">
+      <c r="W17" s="3">
         <v>7.28</v>
       </c>
-      <c r="X17" s="4">
+      <c r="X17" s="3">
         <v>7.82</v>
       </c>
-      <c r="Y17" s="4">
+      <c r="Y17" s="3">
         <v>8.39</v>
       </c>
-      <c r="Z17" s="4">
+      <c r="Z17" s="3">
         <v>9.68</v>
       </c>
     </row>
@@ -4105,77 +4115,77 @@
       <c r="A18" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="7">
+      <c r="B18" s="7"/>
+      <c r="C18" s="6">
         <v>21</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="6">
         <v>19.7</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="6">
         <v>19</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="6">
         <v>17.3</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="6">
         <v>17.3</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="6">
         <v>16.600000000000001</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="6">
         <v>15.1</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J18" s="6">
         <v>12.6</v>
       </c>
-      <c r="K18" s="7">
+      <c r="K18" s="6">
         <v>12.7</v>
       </c>
-      <c r="L18" s="7">
+      <c r="L18" s="6">
         <v>10.8</v>
       </c>
-      <c r="M18" s="4">
+      <c r="M18" s="3">
         <v>12.09</v>
       </c>
-      <c r="N18" s="4">
+      <c r="N18" s="3">
         <v>10.61</v>
       </c>
-      <c r="O18" s="4">
+      <c r="O18" s="3">
         <v>9.1</v>
       </c>
-      <c r="P18" s="4">
+      <c r="P18" s="3">
         <v>8.19</v>
       </c>
-      <c r="Q18" s="4">
+      <c r="Q18" s="3">
         <v>6.99</v>
       </c>
-      <c r="R18" s="4">
+      <c r="R18" s="3">
         <v>5.71</v>
       </c>
-      <c r="S18" s="4">
+      <c r="S18" s="3">
         <v>5.22</v>
       </c>
-      <c r="T18" s="4">
+      <c r="T18" s="3">
         <v>5.17</v>
       </c>
-      <c r="U18" s="4">
+      <c r="U18" s="3">
         <v>5.05</v>
       </c>
-      <c r="V18" s="4">
+      <c r="V18" s="3">
         <v>4.9800000000000004</v>
       </c>
-      <c r="W18" s="4">
+      <c r="W18" s="3">
         <v>4.71</v>
       </c>
-      <c r="X18" s="4">
+      <c r="X18" s="3">
         <v>4.58</v>
       </c>
-      <c r="Y18" s="4">
+      <c r="Y18" s="3">
         <v>4.6399999999999997</v>
       </c>
-      <c r="Z18" s="4">
+      <c r="Z18" s="3">
         <v>4.74</v>
       </c>
     </row>
@@ -4183,57 +4193,57 @@
       <c r="A19" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="4">
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="3">
         <v>20.72</v>
       </c>
-      <c r="N19" s="4">
+      <c r="N19" s="3">
         <v>17.91</v>
       </c>
-      <c r="O19" s="4">
+      <c r="O19" s="3">
         <v>14.89</v>
       </c>
-      <c r="P19" s="4">
+      <c r="P19" s="3">
         <v>12.23</v>
       </c>
-      <c r="Q19" s="4">
+      <c r="Q19" s="3">
         <v>9.81</v>
       </c>
-      <c r="R19" s="4">
+      <c r="R19" s="3">
         <v>8.31</v>
       </c>
-      <c r="S19" s="4">
+      <c r="S19" s="3">
         <v>7.25</v>
       </c>
-      <c r="T19" s="4">
+      <c r="T19" s="3">
         <v>6.42</v>
       </c>
-      <c r="U19" s="4">
+      <c r="U19" s="3">
         <v>5.85</v>
       </c>
-      <c r="V19" s="4">
+      <c r="V19" s="3">
         <v>5.58</v>
       </c>
-      <c r="W19" s="4">
+      <c r="W19" s="3">
         <v>5.58</v>
       </c>
-      <c r="X19" s="4">
+      <c r="X19" s="3">
         <v>5.71</v>
       </c>
-      <c r="Y19" s="4">
+      <c r="Y19" s="3">
         <v>5.59</v>
       </c>
-      <c r="Z19" s="4">
+      <c r="Z19" s="3">
         <v>5.88</v>
       </c>
     </row>
@@ -4241,73 +4251,73 @@
       <c r="A20" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="7">
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="6">
         <v>24.5</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="6">
         <v>27.4</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="6">
         <v>23.1</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="6">
         <v>23.1</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="6">
         <v>21.7</v>
       </c>
-      <c r="J20" s="7">
+      <c r="J20" s="6">
         <v>22.1</v>
       </c>
-      <c r="K20" s="7">
+      <c r="K20" s="6">
         <v>23.9</v>
       </c>
-      <c r="L20" s="7">
+      <c r="L20" s="6">
         <v>19</v>
       </c>
-      <c r="M20" s="4">
+      <c r="M20" s="3">
         <v>24.58</v>
       </c>
-      <c r="N20" s="4">
+      <c r="N20" s="3">
         <v>21.28</v>
       </c>
-      <c r="O20" s="4">
+      <c r="O20" s="3">
         <v>17.75</v>
       </c>
-      <c r="P20" s="4">
+      <c r="P20" s="3">
         <v>14.76</v>
       </c>
-      <c r="Q20" s="4">
+      <c r="Q20" s="3">
         <v>13.09</v>
       </c>
-      <c r="R20" s="4">
+      <c r="R20" s="3">
         <v>10.59</v>
       </c>
-      <c r="S20" s="4">
+      <c r="S20" s="3">
         <v>9.08</v>
       </c>
-      <c r="T20" s="4">
+      <c r="T20" s="3">
         <v>7.79</v>
       </c>
-      <c r="U20" s="4">
+      <c r="U20" s="3">
         <v>6.59</v>
       </c>
-      <c r="V20" s="4">
+      <c r="V20" s="3">
         <v>6.13</v>
       </c>
-      <c r="W20" s="4">
+      <c r="W20" s="3">
         <v>5.0599999999999996</v>
       </c>
-      <c r="X20" s="4">
+      <c r="X20" s="3">
         <v>4.7699999999999996</v>
       </c>
-      <c r="Y20" s="4">
+      <c r="Y20" s="3">
         <v>4.62</v>
       </c>
-      <c r="Z20" s="4">
+      <c r="Z20" s="3">
         <v>4.46</v>
       </c>
     </row>
@@ -4329,7 +4339,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4338,42 +4348,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
+      <c r="A2" s="2"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="A3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="10" t="s">
         <v>79</v>
       </c>
     </row>
@@ -4381,34 +4394,34 @@
       <c r="A4" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>42.11</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>41.55</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>41.06</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>38.26</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <v>35.43</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="4">
         <v>33.25</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="4">
         <v>30.13</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="4">
         <v>27.66</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="4">
         <v>24.96</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="4">
         <v>22.87</v>
       </c>
     </row>
@@ -4416,34 +4429,34 @@
       <c r="A5" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>25.39</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>24.31</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>23.21</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>22.55</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>23.38</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <v>25.67</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="4">
         <v>23.14</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="4">
         <v>21.84</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="4">
         <v>20.81</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="4">
         <v>19.89</v>
       </c>
     </row>
@@ -4451,34 +4464,34 @@
       <c r="A6" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>46.96</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>46.82</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>45.85</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>45.38</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <v>45.21</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <v>41.01</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="4">
         <v>38.18</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="4">
         <v>36.590000000000003</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="4">
         <v>35.68</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="4">
         <v>33.24</v>
       </c>
     </row>
@@ -4486,34 +4499,34 @@
       <c r="A7" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>44.02</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>43.03</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>42.05</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>36.92</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <v>33.71</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="4">
         <v>32.549999999999997</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="4">
         <v>29.5</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="4">
         <v>25.63</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="4">
         <v>21.63</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="4">
         <v>19.559999999999999</v>
       </c>
     </row>
@@ -4521,34 +4534,34 @@
       <c r="A8" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>36.1</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>37.799999999999997</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>36.83</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>31.59</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <v>27.47</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="4">
         <v>24.03</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="4">
         <v>22.94</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="4">
         <v>23.3</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="4">
         <v>21.81</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="4">
         <v>19.88</v>
       </c>
     </row>
@@ -4556,34 +4569,34 @@
       <c r="A9" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>47.26</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>45.41</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>44.24</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>41.63</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <v>32.58</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="4">
         <v>31.7</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="4">
         <v>28.99</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="4">
         <v>28.21</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="4">
         <v>26.02</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="4">
         <v>23.36</v>
       </c>
     </row>
@@ -4591,34 +4604,34 @@
       <c r="A10" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>47.33</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>48.23</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>45.31</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>38.32</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="4">
         <v>31.5</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="4">
         <v>31.68</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="4">
         <v>30.16</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="4">
         <v>28.92</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="4">
         <v>26.31</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="4">
         <v>24.03</v>
       </c>
     </row>
@@ -4626,34 +4639,34 @@
       <c r="A11" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>29.7</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <v>27.14</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>35.06</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>32.22</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="4">
         <v>26.69</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="4">
         <v>17.22</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="4">
         <v>16.2</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="4">
         <v>17.399999999999999</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="4">
         <v>14.94</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="4">
         <v>13.11</v>
       </c>
     </row>
@@ -4661,34 +4674,34 @@
       <c r="A12" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>45.55</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>44.73</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>44.07</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <v>42.8</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="4">
         <v>40.6</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="4">
         <v>38.18</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="4">
         <v>34.770000000000003</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="4">
         <v>30.95</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="4">
         <v>28.25</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="4">
         <v>25.64</v>
       </c>
     </row>
@@ -4696,34 +4709,34 @@
       <c r="A13" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>48.05</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <v>48.78</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>47.52</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <v>45.59</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="4">
         <v>43.07</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="4">
         <v>41.47</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="4">
         <v>33</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="4">
         <v>31.3</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="4">
         <v>29.92</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="4">
         <v>27.92</v>
       </c>
     </row>
@@ -4731,34 +4744,34 @@
       <c r="A14" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>51.27</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <v>49.37</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>47.82</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="4">
         <v>45.62</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="4">
         <v>44.62</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="4">
         <v>44.2</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="4">
         <v>43.03</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="4">
         <v>40.39</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="4">
         <v>38.590000000000003</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="4">
         <v>36.58</v>
       </c>
     </row>
@@ -4766,34 +4779,34 @@
       <c r="A15" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="4">
         <v>43.5</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="4">
         <v>42.58</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <v>41.89</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="4">
         <v>39.69</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="4">
         <v>38.630000000000003</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="4">
         <v>36.799999999999997</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="4">
         <v>36.61</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="4">
         <v>36.200000000000003</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="4">
         <v>35.29</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15" s="4">
         <v>34.1</v>
       </c>
     </row>
@@ -4801,34 +4814,34 @@
       <c r="A16" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <v>52.76</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="4">
         <v>52.28</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <v>50.78</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="4">
         <v>49.76</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="4">
         <v>46.92</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="4">
         <v>44.87</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="4">
         <v>42.31</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="4">
         <v>39.369999999999997</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16" s="4">
         <v>37.08</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K16" s="4">
         <v>33.46</v>
       </c>
     </row>
@@ -4836,34 +4849,34 @@
       <c r="A17" t="s">
         <v>62</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="4">
         <v>45.29</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="4">
         <v>45.64</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <v>44.61</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="4">
         <v>44.57</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="4">
         <v>43.22</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="4">
         <v>37.08</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="4">
         <v>31.91</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="4">
         <v>29.29</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="4">
         <v>27.03</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K17" s="4">
         <v>24.61</v>
       </c>
     </row>
@@ -4871,34 +4884,34 @@
       <c r="A18" t="s">
         <v>63</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="4">
         <v>54.17</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="4">
         <v>52.23</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <v>50.42</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="4">
         <v>48.41</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="4">
         <v>47.21</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="4">
         <v>45.74</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="4">
         <v>44.05</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="4">
         <v>38.67</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18" s="4">
         <v>35.840000000000003</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K18" s="4">
         <v>33.46</v>
       </c>
     </row>
@@ -4906,34 +4919,34 @@
       <c r="A19" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="4">
         <v>39.9</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="4">
         <v>40.479999999999997</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="4">
         <v>40.380000000000003</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="4">
         <v>38.96</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="4">
         <v>35.57</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="4">
         <v>30.97</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="4">
         <v>28.58</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="4">
         <v>27.24</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J19" s="4">
         <v>24.96</v>
       </c>
-      <c r="K19" s="5">
+      <c r="K19" s="4">
         <v>22.51</v>
       </c>
     </row>
@@ -4941,34 +4954,34 @@
       <c r="A20" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="4">
         <v>42.27</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="4">
         <v>40.28</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="4">
         <v>39.409999999999997</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="4">
         <v>38.22</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="4">
         <v>36.39</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="4">
         <v>35.880000000000003</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="4">
         <v>38.29</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I20" s="4">
         <v>36.56</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J20" s="4">
         <v>34.090000000000003</v>
       </c>
-      <c r="K20" s="5">
+      <c r="K20" s="4">
         <v>31.31</v>
       </c>
     </row>
@@ -4976,34 +4989,34 @@
       <c r="A21" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="4">
         <v>47.08</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="4">
         <v>46.79</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="4">
         <v>46.27</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="4">
         <v>43.58</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="4">
         <v>40.520000000000003</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="4">
         <v>37.96</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="4">
         <v>33.76</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21" s="4">
         <v>30.63</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J21" s="4">
         <v>27.57</v>
       </c>
-      <c r="K21" s="5">
+      <c r="K21" s="4">
         <v>24.9</v>
       </c>
     </row>
@@ -5011,34 +5024,34 @@
       <c r="A22" t="s">
         <v>67</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="4">
         <v>50.52</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="4">
         <v>50.5</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="4">
         <v>49.38</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="4">
         <v>44.86</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="4">
         <v>38.81</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="4">
         <v>34.86</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="4">
         <v>31.51</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I22" s="4">
         <v>30.06</v>
       </c>
-      <c r="J22" s="5">
+      <c r="J22" s="4">
         <v>26.99</v>
       </c>
-      <c r="K22" s="5">
+      <c r="K22" s="4">
         <v>24.12</v>
       </c>
     </row>
@@ -5046,34 +5059,34 @@
       <c r="A23" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="4">
         <v>21.23</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="4">
         <v>21.94</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="4">
         <v>21.91</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="4">
         <v>20.48</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="4">
         <v>21.14</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="4">
         <v>20.25</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="4">
         <v>18.34</v>
       </c>
-      <c r="I23" s="5">
+      <c r="I23" s="4">
         <v>17.55</v>
       </c>
-      <c r="J23" s="5">
+      <c r="J23" s="4">
         <v>17.079999999999998</v>
       </c>
-      <c r="K23" s="5">
+      <c r="K23" s="4">
         <v>16.8</v>
       </c>
     </row>
@@ -5081,48 +5094,48 @@
       <c r="A24" t="s">
         <v>69</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="4">
         <v>46.41</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="4">
         <v>44.79</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="4">
         <v>45</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="4">
         <v>40.08</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="4">
         <v>35.06</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G24" s="4">
         <v>34.19</v>
       </c>
-      <c r="H24" s="5">
+      <c r="H24" s="4">
         <v>32.020000000000003</v>
       </c>
-      <c r="I24" s="5">
+      <c r="I24" s="4">
         <v>30.27</v>
       </c>
-      <c r="J24" s="5">
+      <c r="J24" s="4">
         <v>27.39</v>
       </c>
-      <c r="K24" s="5">
+      <c r="K24" s="4">
         <v>24.87</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5135,7 +5148,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G54" sqref="G54"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5144,42 +5157,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
+      <c r="A2" s="2"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="A3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="10" t="s">
         <v>79</v>
       </c>
     </row>
@@ -5187,34 +5203,34 @@
       <c r="A4" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>15.81</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>14</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>12.53</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>11.2</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <v>9.91</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="4">
         <v>8.77</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="4">
         <v>7.82</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="4">
         <v>7.1</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="4">
         <v>6.58</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="4">
         <v>6.32</v>
       </c>
     </row>
@@ -5222,34 +5238,34 @@
       <c r="A5" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>9.16</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>8.67</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>8.84</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>9.1199999999999992</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>9.0299999999999994</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <v>8.94</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="4">
         <v>8.5399999999999991</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="4">
         <v>8.4600000000000009</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="4">
         <v>8.2100000000000009</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="4">
         <v>7.95</v>
       </c>
     </row>
@@ -5257,34 +5273,34 @@
       <c r="A6" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>24.36</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>23</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>21.54</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>20.22</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <v>18.98</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <v>16.010000000000002</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="4">
         <v>13.37</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="4">
         <v>11.5</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="4">
         <v>10.17</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="4">
         <v>9.09</v>
       </c>
     </row>
@@ -5292,34 +5308,34 @@
       <c r="A7" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>15.43</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>13.94</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>12.53</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>11.04</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <v>9.91</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="4">
         <v>9.0500000000000007</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="4">
         <v>8.34</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="4">
         <v>7.6</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="4">
         <v>7.1</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="4">
         <v>6.85</v>
       </c>
     </row>
@@ -5327,34 +5343,34 @@
       <c r="A8" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>13.58</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>13.18</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>12.15</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>10.4</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <v>8.8800000000000008</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="4">
         <v>7.44</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="4">
         <v>6.38</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="4">
         <v>5.92</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="4">
         <v>5.54</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="4">
         <v>5.59</v>
       </c>
     </row>
@@ -5362,34 +5378,34 @@
       <c r="A9" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>16.68</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>13.32</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>11.48</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>10.06</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <v>8.58</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="4">
         <v>7.59</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="4">
         <v>6.36</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="4">
         <v>6.09</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="4">
         <v>5.82</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="4">
         <v>5.6</v>
       </c>
     </row>
@@ -5397,34 +5413,34 @@
       <c r="A10" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>12.64</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>10.98</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>9.18</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>7.28</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="4">
         <v>5.83</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="4">
         <v>4.83</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="4">
         <v>4.05</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="4">
         <v>3.77</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="4">
         <v>3.71</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="4">
         <v>3.82</v>
       </c>
     </row>
@@ -5432,34 +5448,34 @@
       <c r="A11" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>11.05</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <v>9.5</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>8.8000000000000007</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>7.49</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="4">
         <v>6.54</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="4">
         <v>6.02</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="4">
         <v>6.4</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="4">
         <v>6.7</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="4">
         <v>6.84</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="4">
         <v>7.02</v>
       </c>
     </row>
@@ -5467,34 +5483,34 @@
       <c r="A12" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>19.350000000000001</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>16.95</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>14.63</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <v>13.09</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="4">
         <v>11.48</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="4">
         <v>9.82</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="4">
         <v>8.1</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="4">
         <v>6.87</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="4">
         <v>6.23</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="4">
         <v>5.96</v>
       </c>
     </row>
@@ -5502,34 +5518,34 @@
       <c r="A13" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>19.82</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <v>17.37</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>14.76</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <v>12.54</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="4">
         <v>10.8</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="4">
         <v>11.06</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="4">
         <v>10.55</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="4">
         <v>7.8</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="4">
         <v>6.3</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="4">
         <v>5.98</v>
       </c>
     </row>
@@ -5537,34 +5553,34 @@
       <c r="A14" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>22.42</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <v>20.59</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>18.3</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="4">
         <v>15.93</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="4">
         <v>13.49</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="4">
         <v>12.08</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="4">
         <v>10.81</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="4">
         <v>9.7200000000000006</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="4">
         <v>8.06</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="4">
         <v>7.35</v>
       </c>
     </row>
@@ -5572,34 +5588,34 @@
       <c r="A15" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="4">
         <v>27.5</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="4">
         <v>24.69</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <v>22.16</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="4">
         <v>19.63</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="4">
         <v>17.73</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="4">
         <v>15.91</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="4">
         <v>14.46</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="4">
         <v>13.12</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="4">
         <v>11.85</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15" s="4">
         <v>10.72</v>
       </c>
     </row>
@@ -5607,34 +5623,34 @@
       <c r="A16" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <v>22.8</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="4">
         <v>20.63</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <v>17.829999999999998</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="4">
         <v>15.56</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="4">
         <v>13.36</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="4">
         <v>11.03</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="4">
         <v>8.8800000000000008</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="4">
         <v>7.03</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16" s="4">
         <v>6.13</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K16" s="4">
         <v>5.38</v>
       </c>
     </row>
@@ -5642,34 +5658,34 @@
       <c r="A17" t="s">
         <v>62</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="4">
         <v>17.010000000000002</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="4">
         <v>14.13</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <v>12.14</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="4">
         <v>11</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="4">
         <v>9.51</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="4">
         <v>7.64</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="4">
         <v>6.37</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="4">
         <v>5.63</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="4">
         <v>5.18</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K17" s="4">
         <v>5.05</v>
       </c>
     </row>
@@ -5677,34 +5693,34 @@
       <c r="A18" t="s">
         <v>63</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="4">
         <v>22.67</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="4">
         <v>19.75</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <v>17.02</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="4">
         <v>14.57</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="4">
         <v>12.52</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="4">
         <v>11.18</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="4">
         <v>9.9600000000000009</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="4">
         <v>8.1300000000000008</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18" s="4">
         <v>6.42</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K18" s="4">
         <v>5.73</v>
       </c>
     </row>
@@ -5712,34 +5728,34 @@
       <c r="A19" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="4">
         <v>13.28</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="4">
         <v>11.12</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="4">
         <v>9.8000000000000007</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="4">
         <v>8.6199999999999992</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="4">
         <v>7.48</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="4">
         <v>6.27</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="4">
         <v>5.65</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="4">
         <v>5.49</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J19" s="4">
         <v>5.28</v>
       </c>
-      <c r="K19" s="5">
+      <c r="K19" s="4">
         <v>5.12</v>
       </c>
     </row>
@@ -5747,34 +5763,34 @@
       <c r="A20" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="4">
         <v>11.09</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="4">
         <v>10.75</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="4">
         <v>9.9499999999999993</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="4">
         <v>9.36</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="4">
         <v>8.5399999999999991</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="4">
         <v>7.88</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="4">
         <v>7.33</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I20" s="4">
         <v>6.68</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J20" s="4">
         <v>6.01</v>
       </c>
-      <c r="K20" s="5">
+      <c r="K20" s="4">
         <v>5.43</v>
       </c>
     </row>
@@ -5782,34 +5798,34 @@
       <c r="A21" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="4">
         <v>21.58</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="4">
         <v>19.71</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="4">
         <v>17.559999999999999</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="4">
         <v>15.59</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="4">
         <v>12.75</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="4">
         <v>10.87</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="4">
         <v>9.0399999999999991</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21" s="4">
         <v>7.74</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J21" s="4">
         <v>6.85</v>
       </c>
-      <c r="K21" s="5">
+      <c r="K21" s="4">
         <v>6.43</v>
       </c>
     </row>
@@ -5817,34 +5833,34 @@
       <c r="A22" t="s">
         <v>67</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="4">
         <v>20.32</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="4">
         <v>17.38</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="4">
         <v>14.73</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="4">
         <v>12.12</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="4">
         <v>9.82</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="4">
         <v>8.39</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="4">
         <v>6.79</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I22" s="4">
         <v>5.93</v>
       </c>
-      <c r="J22" s="5">
+      <c r="J22" s="4">
         <v>5.54</v>
       </c>
-      <c r="K22" s="5">
+      <c r="K22" s="4">
         <v>5.28</v>
       </c>
     </row>
@@ -5852,34 +5868,34 @@
       <c r="A23" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="4">
         <v>10.52</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="4">
         <v>10.07</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="4">
         <v>9.5500000000000007</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="4">
         <v>9.6199999999999992</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="4">
         <v>9.99</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="4">
         <v>10.050000000000001</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="4">
         <v>9.9700000000000006</v>
       </c>
-      <c r="I23" s="5">
+      <c r="I23" s="4">
         <v>10.01</v>
       </c>
-      <c r="J23" s="5">
+      <c r="J23" s="4">
         <v>10.3</v>
       </c>
-      <c r="K23" s="5">
+      <c r="K23" s="4">
         <v>10.37</v>
       </c>
     </row>
@@ -5887,34 +5903,34 @@
       <c r="A24" t="s">
         <v>69</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="4">
         <v>12.38</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="4">
         <v>10.69</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="4">
         <v>9.26</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="4">
         <v>7.73</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="4">
         <v>6.58</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G24" s="4">
         <v>5.88</v>
       </c>
-      <c r="H24" s="5">
+      <c r="H24" s="4">
         <v>5.49</v>
       </c>
-      <c r="I24" s="5">
+      <c r="I24" s="4">
         <v>4.9800000000000004</v>
       </c>
-      <c r="J24" s="5">
+      <c r="J24" s="4">
         <v>4.7300000000000004</v>
       </c>
-      <c r="K24" s="5">
+      <c r="K24" s="4">
         <v>4.66</v>
       </c>
     </row>
@@ -5927,7 +5943,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFE8FCA1-27BF-4A8C-84EC-B1E61C1AE3BF}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:K3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5935,42 +5953,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
+      <c r="A2" s="2"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="A3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="10" t="s">
         <v>79</v>
       </c>
     </row>
@@ -5978,34 +5999,34 @@
       <c r="A4" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>5.92</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>5.96</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>6</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>5.59</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <v>5.04</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="4">
         <v>4.5</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="4">
         <v>3.84</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="4">
         <v>3.35</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="4">
         <v>2.95</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="4">
         <v>2.66</v>
       </c>
     </row>
@@ -6013,34 +6034,34 @@
       <c r="A5" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>3.15</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>3.13</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>3.09</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>3.05</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>3.15</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <v>3.44</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="4">
         <v>3.15</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="4">
         <v>3</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="4">
         <v>2.83</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="4">
         <v>2.62</v>
       </c>
     </row>
@@ -6048,34 +6069,34 @@
       <c r="A6" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>6.75</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>6.75</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>6.63</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>6.56</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <v>6.5</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <v>5.8</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="4">
         <v>5.3</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="4">
         <v>5</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="4">
         <v>4.8</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="4">
         <v>4.3600000000000003</v>
       </c>
     </row>
@@ -6083,34 +6104,34 @@
       <c r="A7" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>6.15</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>6.15</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>6.15</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>5.38</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <v>4.72</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="4">
         <v>4.3099999999999996</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="4">
         <v>3.63</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="4">
         <v>2.96</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="4">
         <v>2.44</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="4">
         <v>2.1800000000000002</v>
       </c>
     </row>
@@ -6118,34 +6139,34 @@
       <c r="A8" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>4.95</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>5.33</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>5.28</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>4.4400000000000004</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <v>3.63</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="4">
         <v>2.95</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="4">
         <v>2.66</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="4">
         <v>2.65</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="4">
         <v>2.54</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="4">
         <v>2.44</v>
       </c>
     </row>
@@ -6153,34 +6174,34 @@
       <c r="A9" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>6.76</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>6.76</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>6.76</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>6.28</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <v>4.67</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="4">
         <v>4.1399999999999997</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="4">
         <v>3.41</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="4">
         <v>3.16</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="4">
         <v>2.92</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="4">
         <v>2.69</v>
       </c>
     </row>
@@ -6188,34 +6209,34 @@
       <c r="A10" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>6.72</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>7.11</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>6.95</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>5.8</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="4">
         <v>4.34</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="4">
         <v>3.89</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="4">
         <v>3.5</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="4">
         <v>3.36</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="4">
         <v>3.14</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="4">
         <v>2.95</v>
       </c>
     </row>
@@ -6223,34 +6244,34 @@
       <c r="A11" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <v>3.68</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>4.67</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>4.29</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="4">
         <v>3.55</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="4">
         <v>2.13</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="4">
         <v>1.83</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="4">
         <v>1.83</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="4">
         <v>1.6</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="4">
         <v>1.55</v>
       </c>
     </row>
@@ -6258,34 +6279,34 @@
       <c r="A12" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>6.7</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>6.7</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>6.7</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <v>6.5</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="4">
         <v>6</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="4">
         <v>5.4</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="4">
         <v>4.7</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="4">
         <v>4</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="4">
         <v>3.52</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="4">
         <v>3.1</v>
       </c>
     </row>
@@ -6293,34 +6314,34 @@
       <c r="A13" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>6.46</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <v>6.81</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>6.85</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <v>6.62</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="4">
         <v>6.1</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="4">
         <v>5.7</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="4">
         <v>4.4000000000000004</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="4">
         <v>4</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="4">
         <v>3.5</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="4">
         <v>3.09</v>
       </c>
     </row>
@@ -6328,34 +6349,34 @@
       <c r="A14" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>7.09</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <v>6.93</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>6.85</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="4">
         <v>6.6</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="4">
         <v>6.45</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="4">
         <v>6.4</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="4">
         <v>6.25</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="4">
         <v>5.8</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="4">
         <v>5.4</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="4">
         <v>4.93</v>
       </c>
     </row>
@@ -6363,34 +6384,34 @@
       <c r="A15" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="4">
         <v>6.3</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="4">
         <v>6.3</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <v>6.3</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="4">
         <v>6</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="4">
         <v>5.76</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="4">
         <v>5.35</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="4">
         <v>5.17</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="4">
         <v>4.99</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="4">
         <v>4.79</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15" s="4">
         <v>4.5999999999999996</v>
       </c>
     </row>
@@ -6398,34 +6419,34 @@
       <c r="A16" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <v>7.5</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="4">
         <v>7.5</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <v>7.42</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="4">
         <v>7.42</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="4">
         <v>7.05</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="4">
         <v>6.6</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="4">
         <v>6</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="4">
         <v>5.37</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16" s="4">
         <v>4.92</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K16" s="4">
         <v>4.3</v>
       </c>
     </row>
@@ -6433,34 +6454,34 @@
       <c r="A17" t="s">
         <v>62</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="4">
         <v>6.87</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="4">
         <v>6.96</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <v>6.82</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="4">
         <v>6.82</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="4">
         <v>6.52</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="4">
         <v>5.3</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="4">
         <v>4.24</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="4">
         <v>3.61</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="4">
         <v>3.12</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K17" s="4">
         <v>2.75</v>
       </c>
     </row>
@@ -6468,34 +6489,34 @@
       <c r="A18" t="s">
         <v>63</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="4">
         <v>7.33</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="4">
         <v>7.33</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <v>7.33</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="4">
         <v>7.1</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="4">
         <v>6.79</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="4">
         <v>6.4</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="4">
         <v>6</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="4">
         <v>5</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18" s="4">
         <v>4.41</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K18" s="4">
         <v>3.85</v>
       </c>
     </row>
@@ -6503,34 +6524,34 @@
       <c r="A19" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="4">
         <v>5.68</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="4">
         <v>5.89</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="4">
         <v>5.92</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="4">
         <v>5.62</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="4">
         <v>4.9400000000000004</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="4">
         <v>4.05</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="4">
         <v>3.52</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="4">
         <v>3.2</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J19" s="4">
         <v>2.88</v>
       </c>
-      <c r="K19" s="5">
+      <c r="K19" s="4">
         <v>2.63</v>
       </c>
     </row>
@@ -6538,34 +6559,34 @@
       <c r="A20" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="4">
         <v>6.5</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="4">
         <v>6.5</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="4">
         <v>6.55</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="4">
         <v>6.3</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="4">
         <v>5.65</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="4">
         <v>5.15</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="4">
         <v>5.25</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I20" s="4">
         <v>4.9000000000000004</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J20" s="4">
         <v>4.55</v>
       </c>
-      <c r="K20" s="5">
+      <c r="K20" s="4">
         <v>4.17</v>
       </c>
     </row>
@@ -6573,34 +6594,34 @@
       <c r="A21" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="4">
         <v>6.85</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="4">
         <v>6.85</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="4">
         <v>6.85</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="4">
         <v>6.56</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="4">
         <v>6</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="4">
         <v>5.38</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="4">
         <v>4.6500000000000004</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21" s="4">
         <v>4</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J21" s="4">
         <v>3.43</v>
       </c>
-      <c r="K21" s="5">
+      <c r="K21" s="4">
         <v>2.98</v>
       </c>
     </row>
@@ -6608,34 +6629,34 @@
       <c r="A22" t="s">
         <v>67</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="4">
         <v>7.4</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="4">
         <v>7.4</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="4">
         <v>7.32</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="4">
         <v>6.68</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="4">
         <v>5.63</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="4">
         <v>4.7</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="4">
         <v>3.88</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I22" s="4">
         <v>3.5</v>
       </c>
-      <c r="J22" s="5">
+      <c r="J22" s="4">
         <v>3.09</v>
       </c>
-      <c r="K22" s="5">
+      <c r="K22" s="4">
         <v>2.8</v>
       </c>
     </row>
@@ -6643,34 +6664,34 @@
       <c r="A23" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="4">
         <v>2.73</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="4">
         <v>2.83</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="4">
         <v>2.9</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="4">
         <v>2.8</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="4">
         <v>3</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="4">
         <v>2.89</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="4">
         <v>2.57</v>
       </c>
-      <c r="I23" s="5">
+      <c r="I23" s="4">
         <v>2.4300000000000002</v>
       </c>
-      <c r="J23" s="5">
+      <c r="J23" s="4">
         <v>2.33</v>
       </c>
-      <c r="K23" s="5">
+      <c r="K23" s="4">
         <v>2.25</v>
       </c>
     </row>
@@ -6678,34 +6699,34 @@
       <c r="A24" t="s">
         <v>69</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="4">
         <v>6.46</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="4">
         <v>6.46</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="4">
         <v>6.66</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="4">
         <v>5.9</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="4">
         <v>4.9400000000000004</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G24" s="4">
         <v>4.47</v>
       </c>
-      <c r="H24" s="5">
+      <c r="H24" s="4">
         <v>3.96</v>
       </c>
-      <c r="I24" s="5">
+      <c r="I24" s="4">
         <v>3.65</v>
       </c>
-      <c r="J24" s="5">
+      <c r="J24" s="4">
         <v>3.29</v>
       </c>
-      <c r="K24" s="5">
+      <c r="K24" s="4">
         <v>2.98</v>
       </c>
     </row>
@@ -6718,7 +6739,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC617844-60E7-473F-9161-180EF3E3BBDB}">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6726,45 +6749,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B3">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="10">
         <v>1950</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="10">
         <v>1955</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="10">
         <v>1960</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="10">
         <v>1965</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="10">
         <v>1970</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="10">
         <v>1975</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="10">
         <v>1980</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="10">
         <v>1985</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="10">
         <v>1990</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="10">
         <v>1995</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="10">
         <v>2000</v>
       </c>
     </row>
@@ -6772,37 +6798,37 @@
       <c r="A4" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>160028</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>183088</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>209855</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>241149</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <v>274878</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <v>310996</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="5">
         <v>349485</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="5">
         <v>387704</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="5">
         <v>426582</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="5">
         <v>464822</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="5">
         <v>502424</v>
       </c>
     </row>
@@ -6810,37 +6836,37 @@
       <c r="A5" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>17150</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>18928</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>20616</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>22283</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <v>23962</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <v>26049</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="5">
         <v>28094</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="5">
         <v>30305</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="5">
         <v>32527</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="5">
         <v>34768</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="5">
         <v>37032</v>
       </c>
     </row>
@@ -6848,37 +6874,37 @@
       <c r="A6" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>2714</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>3006</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>3351</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>3748</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <v>4212</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="5">
         <v>4759</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="5">
         <v>5355</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="5">
         <v>5895</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="5">
         <v>6573</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="5">
         <v>7414</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="5">
         <v>8329</v>
       </c>
     </row>
@@ -6886,37 +6912,37 @@
       <c r="A7" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>53975</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>62893</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>72757</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>84351</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <v>96021</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <v>108167</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="5">
         <v>121672</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="5">
         <v>135262</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="5">
         <v>148030</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="5">
         <v>159182</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7" s="5">
         <v>169625</v>
       </c>
     </row>
@@ -6924,37 +6950,37 @@
       <c r="A8" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>6082</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>6764</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>7608</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>8572</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <v>9496</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="5">
         <v>10337</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="5">
         <v>11147</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="5">
         <v>12047</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="5">
         <v>13100</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="5">
         <v>14210</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="5">
         <v>15211</v>
       </c>
     </row>
@@ -6962,37 +6988,37 @@
       <c r="A9" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>11946</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>13759</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>15939</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <v>18506</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="5">
         <v>21360</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="5">
         <v>23776</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="5">
         <v>26525</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="5">
         <v>29415</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="5">
         <v>32596</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="5">
         <v>35814</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9" s="5">
         <v>38905</v>
       </c>
     </row>
@@ -7000,37 +7026,37 @@
       <c r="A10" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>862</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>1025</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>1236</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>1482</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <v>1731</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="5">
         <v>1968</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="5">
         <v>2284</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="5">
         <v>2642</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="5">
         <v>3035</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="5">
         <v>3424</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L10" s="5">
         <v>3798</v>
       </c>
     </row>
@@ -7038,37 +7064,37 @@
       <c r="A11" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>5850</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>6417</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>6985</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <v>7754</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <v>8520</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="5">
         <v>9306</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="5">
         <v>9710</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="5">
         <v>10115</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="5">
         <v>10628</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="5">
         <v>10964</v>
       </c>
-      <c r="L11" s="6">
+      <c r="L11" s="5">
         <v>11201</v>
       </c>
     </row>
@@ -7076,37 +7102,37 @@
       <c r="A12" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>3387</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>3862</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <v>4439</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <v>5144</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="5">
         <v>5970</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="5">
         <v>6907</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="5">
         <v>7961</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="5">
         <v>9099</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="5">
         <v>10264</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="5">
         <v>11460</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L12" s="5">
         <v>12646</v>
       </c>
     </row>
@@ -7114,37 +7140,37 @@
       <c r="A13" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>1951</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <v>2224</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <v>2578</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <v>3012</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="5">
         <v>3598</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="5">
         <v>4102</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="5">
         <v>4547</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="5">
         <v>4676</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="5">
         <v>5031</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="5">
         <v>5662</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L13" s="5">
         <v>6319</v>
       </c>
     </row>
@@ -7152,37 +7178,37 @@
       <c r="A14" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>2969</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>3431</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="5">
         <v>3963</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <v>4566</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="5">
         <v>5243</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="5">
         <v>6018</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="5">
         <v>6820</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="5">
         <v>7738</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="5">
         <v>8749</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="5">
         <v>9976</v>
       </c>
-      <c r="L14" s="6">
+      <c r="L14" s="5">
         <v>11385</v>
       </c>
     </row>
@@ -7190,37 +7216,37 @@
       <c r="A15" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>3261</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <v>3508</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="5">
         <v>3804</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="5">
         <v>4143</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="5">
         <v>4520</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="5">
         <v>4920</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="5">
         <v>5353</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="5">
         <v>5865</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="5">
         <v>6486</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K15" s="5">
         <v>7180</v>
       </c>
-      <c r="L15" s="6">
+      <c r="L15" s="5">
         <v>7959</v>
       </c>
     </row>
@@ -7228,37 +7254,37 @@
       <c r="A16" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>1380</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <v>1610</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="5">
         <v>1894</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="5">
         <v>2245</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="5">
         <v>2592</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="5">
         <v>3017</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="5">
         <v>3569</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="5">
         <v>4186</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J16" s="5">
         <v>4879</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K16" s="5">
         <v>5654</v>
       </c>
-      <c r="L16" s="6">
+      <c r="L16" s="5">
         <v>6485</v>
       </c>
     </row>
@@ -7266,37 +7292,37 @@
       <c r="A17" t="s">
         <v>62</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>27737</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <v>31738</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="5">
         <v>36945</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="5">
         <v>43148</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="5">
         <v>50596</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="5">
         <v>59099</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="5">
         <v>67570</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="5">
         <v>75465</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J17" s="5">
         <v>83226</v>
       </c>
-      <c r="K17" s="6">
+      <c r="K17" s="5">
         <v>91145</v>
       </c>
-      <c r="L17" s="6">
+      <c r="L17" s="5">
         <v>98881</v>
       </c>
     </row>
@@ -7304,37 +7330,37 @@
       <c r="A18" t="s">
         <v>63</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>1098</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="5">
         <v>1277</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="5">
         <v>1493</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="5">
         <v>1751</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="5">
         <v>2054</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="5">
         <v>2417</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="5">
         <v>2790</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="5">
         <v>3203</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J18" s="5">
         <v>3568</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K18" s="5">
         <v>4124</v>
       </c>
-      <c r="L18" s="6">
+      <c r="L18" s="5">
         <v>4694</v>
       </c>
     </row>
@@ -7342,37 +7368,37 @@
       <c r="A19" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <v>860</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="5">
         <v>977</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="5">
         <v>1126</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="5">
         <v>1303</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="5">
         <v>1506</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="5">
         <v>1723</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="5">
         <v>1950</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I19" s="5">
         <v>2167</v>
       </c>
-      <c r="J19" s="6">
+      <c r="J19" s="5">
         <v>2398</v>
       </c>
-      <c r="K19" s="6">
+      <c r="K19" s="5">
         <v>2631</v>
       </c>
-      <c r="L19" s="6">
+      <c r="L19" s="5">
         <v>2856</v>
       </c>
     </row>
@@ -7380,37 +7406,37 @@
       <c r="A20" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="5">
         <v>1488</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="5">
         <v>1659</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="5">
         <v>1842</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="5">
         <v>2081</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="5">
         <v>2350</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="5">
         <v>2659</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="5">
         <v>3114</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20" s="5">
         <v>3609</v>
       </c>
-      <c r="J20" s="6">
+      <c r="J20" s="5">
         <v>4219</v>
       </c>
-      <c r="K20" s="6">
+      <c r="K20" s="5">
         <v>4828</v>
       </c>
-      <c r="L20" s="6">
+      <c r="L20" s="5">
         <v>5496</v>
       </c>
     </row>
@@ -7418,37 +7444,37 @@
       <c r="A21" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="5">
         <v>7632</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="5">
         <v>8672</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="5">
         <v>9931</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="5">
         <v>11467</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="5">
         <v>13193</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="5">
         <v>15161</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="5">
         <v>17324</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I21" s="5">
         <v>19492</v>
       </c>
-      <c r="J21" s="6">
+      <c r="J21" s="5">
         <v>21569</v>
       </c>
-      <c r="K21" s="6">
+      <c r="K21" s="5">
         <v>23532</v>
       </c>
-      <c r="L21" s="6">
+      <c r="L21" s="5">
         <v>25662</v>
       </c>
     </row>
@@ -7456,37 +7482,37 @@
       <c r="A22" t="s">
         <v>67</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <v>2353</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="5">
         <v>2737</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="5">
         <v>3231</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="5">
         <v>3806</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="5">
         <v>4423</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="5">
         <v>5049</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22" s="5">
         <v>5697</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I22" s="5">
         <v>6376</v>
       </c>
-      <c r="J22" s="6">
+      <c r="J22" s="5">
         <v>7110</v>
       </c>
-      <c r="K22" s="6">
+      <c r="K22" s="5">
         <v>7823</v>
       </c>
-      <c r="L22" s="6">
+      <c r="L22" s="5">
         <v>8495</v>
       </c>
     </row>
@@ -7494,37 +7520,37 @@
       <c r="A23" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="5">
         <v>2239</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="5">
         <v>2372</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="5">
         <v>2538</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="5">
         <v>2693</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="5">
         <v>2808</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="5">
         <v>2829</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H23" s="5">
         <v>2914</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I23" s="5">
         <v>3008</v>
       </c>
-      <c r="J23" s="6">
+      <c r="J23" s="5">
         <v>3094</v>
       </c>
-      <c r="K23" s="6">
+      <c r="K23" s="5">
         <v>3186</v>
       </c>
-      <c r="L23" s="6">
+      <c r="L23" s="5">
         <v>3274</v>
       </c>
     </row>
@@ -7532,52 +7558,52 @@
       <c r="A24" t="s">
         <v>69</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="5">
         <v>5094</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="5">
         <v>6230</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="5">
         <v>7579</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="5">
         <v>9094</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="5">
         <v>10721</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="5">
         <v>12734</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H24" s="5">
         <v>15091</v>
       </c>
-      <c r="I24" s="6">
+      <c r="I24" s="5">
         <v>17138</v>
       </c>
-      <c r="J24" s="6">
+      <c r="J24" s="5">
         <v>19502</v>
       </c>
-      <c r="K24" s="6">
+      <c r="K24" s="5">
         <v>21844</v>
       </c>
-      <c r="L24" s="6">
+      <c r="L24" s="5">
         <v>24170</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7590,7 +7616,7 @@
   <dimension ref="A3:O23"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7599,59 +7625,59 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="N6" t="s">
+      <c r="N6" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="O6" t="s">
+      <c r="O6" s="10" t="s">
         <v>102</v>
       </c>
     </row>
@@ -8464,7 +8490,7 @@
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8473,54 +8499,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" s="10" t="s">
         <v>102</v>
       </c>
     </row>
